--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>542940.6781461738</v>
+        <v>539946.4014863772</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673449</v>
       </c>
     </row>
     <row r="9">
@@ -677,55 +677,55 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="X2" t="n">
         <v>6.056421089299432</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,11 +744,11 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>6.056421089299432</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,46 +838,46 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="T4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="K4" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>6.056421089299432</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,73 +1051,73 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.908692693494014</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4.147728395805418</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G8" t="n">
         <v>13.09783323005805</v>
       </c>
       <c r="H8" t="n">
-        <v>145.1986582043253</v>
+        <v>187.52558716632</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>15.2380876823806</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>55.91281647716792</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>138.2613113589522</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>71.260281713512</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>60.84311367291419</v>
       </c>
       <c r="U10" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,10 +1385,10 @@
         <v>410.3969424465325</v>
       </c>
       <c r="H11" t="n">
-        <v>289.2333283694414</v>
+        <v>70.68228205332319</v>
       </c>
       <c r="I11" t="n">
-        <v>21.34522518810658</v>
+        <v>21.34522518810701</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.22926446046502</v>
+        <v>97.22926446046527</v>
       </c>
       <c r="T11" t="n">
-        <v>201.6207316513238</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.9531893023483</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.586793989497039</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7186853960805</v>
       </c>
       <c r="H12" t="n">
-        <v>86.8850953276345</v>
+        <v>86.88509532763456</v>
       </c>
       <c r="I12" t="n">
-        <v>9.149882754511168</v>
+        <v>9.149882754511367</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.928072271399</v>
+        <v>122.9280722713991</v>
       </c>
       <c r="T12" t="n">
         <v>189.5848146860822</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.63328035625227</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.7904085787106</v>
       </c>
       <c r="H13" t="n">
-        <v>142.6620977565879</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.27331002355963</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>78.34772704413017</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.6666509026342</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>103.2074840384686</v>
       </c>
       <c r="U13" t="n">
         <v>286.1989982230501</v>
@@ -1613,10 +1613,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>331.6388439349705</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>356.5845196044223</v>
       </c>
       <c r="G14" t="n">
         <v>409.8432760127576</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081957</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561454</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>143.7767785286751</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>75.88510261699952</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>331.6388439349705</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>335.9464125187653</v>
       </c>
     </row>
     <row r="18">
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>15.22724373072964</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2059,13 +2059,13 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
-        <v>132.7939019641543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,13 +2090,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>356.5845196044222</v>
       </c>
       <c r="G20" t="n">
         <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>233.2715658672528</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>21.8990701831686</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>7.72950549304262</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>82.40799532181363</v>
+        <v>163.8427167489426</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>116.1508690154002</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,10 +2728,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
-        <v>21.11024843228027</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2770,7 +2770,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>49.07288901697903</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2965,7 +2965,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
         <v>81.80457674440902</v>
@@ -3004,13 +3004,13 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>10.03244541516692</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.1415897965312</v>
+        <v>379.1415897965313</v>
       </c>
       <c r="C32" t="n">
         <v>361.6806399040582</v>
@@ -3035,13 +3035,13 @@
         <v>351.0907897537336</v>
       </c>
       <c r="E32" t="n">
-        <v>378.3381182053124</v>
+        <v>378.3381182053125</v>
       </c>
       <c r="F32" t="n">
         <v>403.2837938747621</v>
       </c>
       <c r="G32" t="n">
-        <v>406.2510241458082</v>
+        <v>406.2510241458083</v>
       </c>
       <c r="H32" t="n">
         <v>279.970840137595</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>81.02033873387023</v>
+        <v>81.0203387338703</v>
       </c>
       <c r="T32" t="n">
         <v>195.6048049705248</v>
       </c>
       <c r="U32" t="n">
-        <v>247.3166441206969</v>
+        <v>247.316644120697</v>
       </c>
       <c r="V32" t="n">
-        <v>324.1600066031855</v>
+        <v>324.1600066031856</v>
       </c>
       <c r="W32" t="n">
-        <v>345.6487168504636</v>
+        <v>345.6487168504637</v>
       </c>
       <c r="X32" t="n">
         <v>366.1388488115197</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.6456867891042</v>
+        <v>382.6456867891043</v>
       </c>
     </row>
     <row r="33">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>176.2397283149879</v>
+        <v>176.239728314988</v>
       </c>
       <c r="C34" t="n">
-        <v>163.6545692316785</v>
+        <v>150.6486333357655</v>
       </c>
       <c r="D34" t="n">
         <v>145.023221151263</v>
       </c>
       <c r="E34" t="n">
-        <v>142.8417107796198</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>22.00822268768519</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G34" t="n">
         <v>161.9498010102176</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>136.8617379250046</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.58849972413417</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>177.7462364915096</v>
       </c>
       <c r="T34" t="n">
-        <v>213.8897425958124</v>
+        <v>213.8897425958125</v>
       </c>
       <c r="U34" t="n">
-        <v>282.593199681471</v>
+        <v>282.5931996814711</v>
       </c>
       <c r="V34" t="n">
-        <v>248.5453914568786</v>
+        <v>248.5453914568787</v>
       </c>
       <c r="W34" t="n">
-        <v>282.9307464696416</v>
+        <v>282.9307464696417</v>
       </c>
       <c r="X34" t="n">
         <v>222.1174035220878</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.9924014851454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>379.1415897965312</v>
+        <v>379.1415897965313</v>
       </c>
       <c r="C35" t="n">
-        <v>361.6806399040582</v>
+        <v>361.6806399040583</v>
       </c>
       <c r="D35" t="n">
-        <v>351.0907897537336</v>
+        <v>351.0907897537337</v>
       </c>
       <c r="E35" t="n">
-        <v>378.3381182053124</v>
+        <v>378.3381182053125</v>
       </c>
       <c r="F35" t="n">
-        <v>403.2837938747621</v>
+        <v>403.2837938747622</v>
       </c>
       <c r="G35" t="n">
-        <v>406.2510241458082</v>
+        <v>406.2510241458083</v>
       </c>
       <c r="H35" t="n">
-        <v>279.970840137595</v>
+        <v>279.9708401375951</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>81.02033873387025</v>
+        <v>81.02033873387036</v>
       </c>
       <c r="T35" t="n">
-        <v>195.6048049705248</v>
+        <v>195.6048049705249</v>
       </c>
       <c r="U35" t="n">
-        <v>247.3166441206969</v>
+        <v>247.316644120697</v>
       </c>
       <c r="V35" t="n">
-        <v>324.1600066031855</v>
+        <v>324.1600066031856</v>
       </c>
       <c r="W35" t="n">
-        <v>345.6487168504636</v>
+        <v>345.6487168504638</v>
       </c>
       <c r="X35" t="n">
-        <v>366.1388488115197</v>
+        <v>366.1388488115198</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.6456867891042</v>
+        <v>382.6456867891043</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>176.2397283149879</v>
+        <v>176.239728314988</v>
       </c>
       <c r="C37" t="n">
-        <v>163.6545692316785</v>
+        <v>163.6545692316786</v>
       </c>
       <c r="D37" t="n">
-        <v>145.023221151263</v>
+        <v>145.0232211512631</v>
       </c>
       <c r="E37" t="n">
-        <v>142.8417107796198</v>
+        <v>142.8417107796199</v>
       </c>
       <c r="F37" t="n">
-        <v>141.8287961559819</v>
+        <v>141.828796155982</v>
       </c>
       <c r="G37" t="n">
-        <v>4.999495445353414</v>
+        <v>161.9498010102177</v>
       </c>
       <c r="H37" t="n">
-        <v>136.8617379250045</v>
+        <v>136.8617379250047</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>63.58849972413429</v>
       </c>
       <c r="S37" t="n">
-        <v>177.7462364915096</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>213.8897425958125</v>
       </c>
       <c r="U37" t="n">
-        <v>282.593199681471</v>
+        <v>282.5931996814712</v>
       </c>
       <c r="V37" t="n">
-        <v>248.5453914568786</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>282.9307464696416</v>
+        <v>274.7938265332164</v>
       </c>
       <c r="X37" t="n">
-        <v>222.1174035220878</v>
+        <v>222.1174035220879</v>
       </c>
       <c r="Y37" t="n">
-        <v>214.9924014851454</v>
+        <v>214.9924014851455</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>406.2510241458082</v>
       </c>
       <c r="H38" t="n">
-        <v>279.9708401375958</v>
+        <v>279.970840137595</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>81.02033873387025</v>
+        <v>81.02033873387023</v>
       </c>
       <c r="T38" t="n">
         <v>195.6048049705248</v>
@@ -3661,7 +3661,7 @@
         <v>176.2397283149879</v>
       </c>
       <c r="C40" t="n">
-        <v>163.6545692316785</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>145.023221151263</v>
@@ -3670,16 +3670,16 @@
         <v>142.8417107796198</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G40" t="n">
         <v>161.9498010102176</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>136.8617379250045</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>78.21232487745964</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>177.7462364915096</v>
       </c>
       <c r="T40" t="n">
-        <v>121.740228516122</v>
+        <v>211.4226852589963</v>
       </c>
       <c r="U40" t="n">
         <v>282.593199681471</v>
@@ -3721,7 +3721,7 @@
         <v>248.5453914568786</v>
       </c>
       <c r="W40" t="n">
-        <v>282.9307464696416</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>222.1174035220878</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>379.1415897965312</v>
+        <v>379.1415897965313</v>
       </c>
       <c r="C41" t="n">
         <v>361.6806399040582</v>
@@ -3746,13 +3746,13 @@
         <v>351.0907897537336</v>
       </c>
       <c r="E41" t="n">
-        <v>378.3381182053124</v>
+        <v>378.3381182053125</v>
       </c>
       <c r="F41" t="n">
         <v>403.2837938747621</v>
       </c>
       <c r="G41" t="n">
-        <v>406.2510241458082</v>
+        <v>406.2510241458083</v>
       </c>
       <c r="H41" t="n">
         <v>279.970840137595</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>81.02033873387023</v>
+        <v>81.0203387338703</v>
       </c>
       <c r="T41" t="n">
         <v>195.6048049705248</v>
       </c>
       <c r="U41" t="n">
-        <v>247.3166441206969</v>
+        <v>247.316644120697</v>
       </c>
       <c r="V41" t="n">
-        <v>324.1600066031855</v>
+        <v>324.1600066031856</v>
       </c>
       <c r="W41" t="n">
-        <v>345.6487168504636</v>
+        <v>345.6487168504637</v>
       </c>
       <c r="X41" t="n">
         <v>366.1388488115197</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.6456867891042</v>
+        <v>382.6456867891043</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>176.2397283149879</v>
+        <v>176.239728314988</v>
       </c>
       <c r="C43" t="n">
         <v>163.6545692316785</v>
       </c>
       <c r="D43" t="n">
-        <v>145.023221151263</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>142.8417107796198</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>141.8287961559819</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>161.9498010102176</v>
       </c>
       <c r="H43" t="n">
-        <v>136.8617379250045</v>
+        <v>53.91459324959744</v>
       </c>
       <c r="I43" t="n">
-        <v>20.79593092664555</v>
+        <v>78.21232487745971</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>63.58849972413424</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>177.7462364915096</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>213.8897425958125</v>
       </c>
       <c r="U43" t="n">
-        <v>282.593199681471</v>
+        <v>282.5931996814711</v>
       </c>
       <c r="V43" t="n">
-        <v>248.5453914568786</v>
+        <v>248.5453914568787</v>
       </c>
       <c r="W43" t="n">
-        <v>282.9307464696416</v>
+        <v>282.9307464696417</v>
       </c>
       <c r="X43" t="n">
         <v>222.1174035220878</v>
       </c>
       <c r="Y43" t="n">
-        <v>214.9924014851454</v>
+        <v>214.9924014851455</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>81.02033873387025</v>
+        <v>81.02033873387023</v>
       </c>
       <c r="T44" t="n">
         <v>195.6048049705248</v>
@@ -4138,22 +4138,22 @@
         <v>163.6545692316785</v>
       </c>
       <c r="D46" t="n">
-        <v>145.023221151263</v>
+        <v>53.9145932495987</v>
       </c>
       <c r="E46" t="n">
-        <v>142.8417107796198</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>141.8287961559819</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>161.9498010102176</v>
       </c>
       <c r="H46" t="n">
-        <v>136.8617379250045</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>20.79593092664517</v>
+        <v>78.21232487745964</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>63.58849972413417</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>177.7462364915096</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>213.8897425958124</v>
       </c>
       <c r="U46" t="n">
         <v>282.593199681471</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F2" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G2" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H2" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I2" t="n">
         <v>0.5500836593369149</v>
@@ -4331,19 +4331,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K2" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="M2" t="n">
         <v>7.357368943631237</v>
       </c>
-      <c r="L2" t="n">
-        <v>8.728814080766526</v>
-      </c>
-      <c r="M2" t="n">
-        <v>15.53609936506085</v>
-      </c>
       <c r="N2" t="n">
-        <v>22.34338464935517</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O2" t="n">
-        <v>22.34338464935517</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P2" t="n">
         <v>22.34338464935517</v>
@@ -4367,13 +4367,13 @@
         <v>27.50418296684575</v>
       </c>
       <c r="W2" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X2" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="3">
@@ -4392,7 +4392,7 @@
         <v>6.667680719235332</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="F3" t="n">
         <v>0.5500836593369149</v>
@@ -4407,22 +4407,22 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J3" t="n">
-        <v>6.856703976333826</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K3" t="n">
-        <v>13.66398926062815</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L3" t="n">
-        <v>13.66398926062815</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M3" t="n">
-        <v>20.47127454492247</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N3" t="n">
-        <v>20.47127454492247</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O3" t="n">
-        <v>20.47127454492247</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P3" t="n">
         <v>20.69689768255142</v>
@@ -4431,22 +4431,22 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T3" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U3" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V3" t="n">
         <v>13.6131814684388</v>
       </c>
       <c r="W3" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X3" t="n">
         <v>6.667680719235332</v>
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C4" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D4" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E4" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F4" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G4" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H4" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I4" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J4" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K4" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="L4" t="n">
-        <v>2.214854686289198</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M4" t="n">
-        <v>9.02213997058352</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N4" t="n">
-        <v>15.82942525487784</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O4" t="n">
         <v>22.63671053917217</v>
@@ -4513,25 +4513,25 @@
         <v>27.50418296684575</v>
       </c>
       <c r="S4" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T4" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U4" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V4" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W4" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X4" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="5">
@@ -4565,16 +4565,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J5" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K5" t="n">
-        <v>14.16465422792556</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L5" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M5" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N5" t="n">
         <v>20.69689768255142</v>
@@ -4595,16 +4595,16 @@
         <v>27.50418296684575</v>
       </c>
       <c r="T5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X5" t="n">
         <v>14.44108515774386</v>
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="H6" t="n">
         <v>7.495584408540386</v>
-      </c>
-      <c r="C6" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="F6" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5500836593369149</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5500836593369149</v>
       </c>
       <c r="I6" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J6" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K6" t="n">
         <v>7.357368943631237</v>
@@ -4653,13 +4653,13 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M6" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N6" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O6" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="P6" t="n">
         <v>20.69689768255142</v>
@@ -4674,22 +4674,22 @@
         <v>27.50418296684575</v>
       </c>
       <c r="T6" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U6" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V6" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W6" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X6" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.6131814684388</v>
+        <v>9.423556826211108</v>
       </c>
       <c r="C7" t="n">
-        <v>13.6131814684388</v>
+        <v>2.478056077007637</v>
       </c>
       <c r="D7" t="n">
-        <v>13.6131814684388</v>
+        <v>2.478056077007637</v>
       </c>
       <c r="E7" t="n">
-        <v>7.495584408540386</v>
+        <v>2.478056077007637</v>
       </c>
       <c r="F7" t="n">
-        <v>7.495584408540386</v>
+        <v>2.478056077007637</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5500836593369149</v>
+        <v>2.478056077007637</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5500836593369149</v>
+        <v>2.478056077007637</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5500836593369149</v>
+        <v>2.478056077007637</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5500836593369149</v>
+        <v>2.478056077007637</v>
       </c>
       <c r="K7" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="L7" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M7" t="n">
-        <v>13.8896123982571</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N7" t="n">
         <v>13.8896123982571</v>
@@ -4744,31 +4744,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.50418296684575</v>
+        <v>23.31455832461805</v>
       </c>
       <c r="R7" t="n">
-        <v>27.50418296684575</v>
+        <v>23.31455832461805</v>
       </c>
       <c r="S7" t="n">
-        <v>20.55868221764227</v>
+        <v>23.31455832461805</v>
       </c>
       <c r="T7" t="n">
-        <v>20.55868221764227</v>
+        <v>23.31455832461805</v>
       </c>
       <c r="U7" t="n">
-        <v>20.55868221764227</v>
+        <v>23.31455832461805</v>
       </c>
       <c r="V7" t="n">
-        <v>13.6131814684388</v>
+        <v>23.31455832461805</v>
       </c>
       <c r="W7" t="n">
-        <v>13.6131814684388</v>
+        <v>23.31455832461805</v>
       </c>
       <c r="X7" t="n">
-        <v>13.6131814684388</v>
+        <v>16.36905757541458</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.6131814684388</v>
+        <v>16.36905757541458</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>371.2627786323105</v>
+        <v>723.230240760167</v>
       </c>
       <c r="C8" t="n">
-        <v>371.2627786323105</v>
+        <v>723.230240760167</v>
       </c>
       <c r="D8" t="n">
-        <v>181.8429936158255</v>
+        <v>723.230240760167</v>
       </c>
       <c r="E8" t="n">
-        <v>181.8429936158255</v>
+        <v>533.8104557436822</v>
       </c>
       <c r="F8" t="n">
-        <v>174.8974928666221</v>
+        <v>344.3906707271973</v>
       </c>
       <c r="G8" t="n">
-        <v>161.6673582908059</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="H8" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I8" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058984</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123834</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652803</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652803</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652803</v>
+        <v>723.230240760167</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652803</v>
+        <v>723.230240760167</v>
       </c>
       <c r="U8" t="n">
-        <v>750.1023486652803</v>
+        <v>723.230240760167</v>
       </c>
       <c r="V8" t="n">
-        <v>750.1023486652803</v>
+        <v>723.230240760167</v>
       </c>
       <c r="W8" t="n">
-        <v>560.6825636487954</v>
+        <v>723.230240760167</v>
       </c>
       <c r="X8" t="n">
-        <v>560.6825636487954</v>
+        <v>723.230240760167</v>
       </c>
       <c r="Y8" t="n">
-        <v>371.2627786323105</v>
+        <v>723.230240760167</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>392.4672266287274</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C9" t="n">
-        <v>218.0141973476003</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D9" t="n">
-        <v>218.0141973476003</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E9" t="n">
-        <v>218.0141973476003</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F9" t="n">
-        <v>71.47963937448532</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G9" t="n">
         <v>15.0020469733056</v>
@@ -4884,13 +4884,13 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772651</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N9" t="n">
         <v>512.5000587546604</v>
@@ -4899,34 +4899,34 @@
         <v>649.2101578476352</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652803</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652803</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652803</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652803</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="U9" t="n">
-        <v>750.1023486652803</v>
+        <v>533.4995072678432</v>
       </c>
       <c r="V9" t="n">
-        <v>750.1023486652803</v>
+        <v>344.0797222513584</v>
       </c>
       <c r="W9" t="n">
-        <v>750.1023486652803</v>
+        <v>154.6599372348735</v>
       </c>
       <c r="X9" t="n">
-        <v>750.1023486652803</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y9" t="n">
-        <v>560.6825636487954</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>237.0987689245424</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="C10" t="n">
-        <v>237.0987689245424</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="D10" t="n">
-        <v>86.98212951220663</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="E10" t="n">
-        <v>86.98212951220663</v>
+        <v>161.891994471216</v>
       </c>
       <c r="F10" t="n">
         <v>15.0020469733056</v>
@@ -4969,43 +4969,43 @@
         <v>118.7527324484196</v>
       </c>
       <c r="M10" t="n">
-        <v>304.4030637430765</v>
+        <v>285.9838492295953</v>
       </c>
       <c r="N10" t="n">
-        <v>471.6341805242523</v>
+        <v>471.6341805242521</v>
       </c>
       <c r="O10" t="n">
-        <v>634.3723839608025</v>
+        <v>634.3723839608023</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652803</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q10" t="n">
-        <v>750.1023486652803</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R10" t="n">
-        <v>615.9383389575122</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S10" t="n">
-        <v>426.5185539410273</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T10" t="n">
-        <v>426.5185539410273</v>
+        <v>688.6446580865788</v>
       </c>
       <c r="U10" t="n">
-        <v>237.0987689245424</v>
+        <v>499.224873070094</v>
       </c>
       <c r="V10" t="n">
-        <v>237.0987689245424</v>
+        <v>499.224873070094</v>
       </c>
       <c r="W10" t="n">
-        <v>237.0987689245424</v>
+        <v>499.224873070094</v>
       </c>
       <c r="X10" t="n">
-        <v>237.0987689245424</v>
+        <v>499.224873070094</v>
       </c>
       <c r="Y10" t="n">
-        <v>237.0987689245424</v>
+        <v>309.8050880536091</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1962.6076236007</v>
+        <v>2110.811507898568</v>
       </c>
       <c r="C11" t="n">
-        <v>1962.6076236007</v>
+        <v>1741.848990958157</v>
       </c>
       <c r="D11" t="n">
-        <v>1604.34192499395</v>
+        <v>1383.583292351406</v>
       </c>
       <c r="E11" t="n">
-        <v>1218.553672395706</v>
+        <v>997.7950397531622</v>
       </c>
       <c r="F11" t="n">
-        <v>807.5677676060982</v>
+        <v>586.8091349635546</v>
       </c>
       <c r="G11" t="n">
-        <v>393.0254014984895</v>
+        <v>172.266768855946</v>
       </c>
       <c r="H11" t="n">
-        <v>100.8705243576395</v>
+        <v>100.8705243576397</v>
       </c>
       <c r="I11" t="n">
-        <v>79.30969083429952</v>
+        <v>79.30969083429926</v>
       </c>
       <c r="J11" t="n">
-        <v>312.2837373146466</v>
+        <v>312.2837373146458</v>
       </c>
       <c r="K11" t="n">
-        <v>712.1899589432883</v>
+        <v>712.1899589432865</v>
       </c>
       <c r="L11" t="n">
-        <v>1245.210750858611</v>
+        <v>1245.210750858607</v>
       </c>
       <c r="M11" t="n">
-        <v>1869.968521419968</v>
+        <v>1869.968521419962</v>
       </c>
       <c r="N11" t="n">
-        <v>2509.449334251981</v>
+        <v>2509.449334251973</v>
       </c>
       <c r="O11" t="n">
-        <v>3099.957671020867</v>
+        <v>3099.957671020857</v>
       </c>
       <c r="P11" t="n">
-        <v>3569.441873700941</v>
+        <v>3569.441873700931</v>
       </c>
       <c r="Q11" t="n">
-        <v>3873.832211167643</v>
+        <v>3873.832211167631</v>
       </c>
       <c r="R11" t="n">
-        <v>3965.484541714975</v>
+        <v>3965.484541714963</v>
       </c>
       <c r="S11" t="n">
-        <v>3867.273163472081</v>
+        <v>3867.273163472068</v>
       </c>
       <c r="T11" t="n">
-        <v>3663.615858773775</v>
+        <v>3867.273163472068</v>
       </c>
       <c r="U11" t="n">
-        <v>3410.127788771403</v>
+        <v>3613.785093469696</v>
       </c>
       <c r="V11" t="n">
-        <v>3079.064901427832</v>
+        <v>3613.785093469696</v>
       </c>
       <c r="W11" t="n">
-        <v>2726.296246157718</v>
+        <v>3261.016438199582</v>
       </c>
       <c r="X11" t="n">
-        <v>2352.830487896638</v>
+        <v>2887.550679938502</v>
       </c>
       <c r="Y11" t="n">
-        <v>2349.207463664822</v>
+        <v>2497.41134796269</v>
       </c>
     </row>
     <row r="12">
@@ -5106,43 +5106,43 @@
         <v>458.9287573712794</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3941993981643</v>
+        <v>312.3941993981644</v>
       </c>
       <c r="G12" t="n">
         <v>176.3147192001032</v>
       </c>
       <c r="H12" t="n">
-        <v>88.55199664693706</v>
+        <v>88.551996646937</v>
       </c>
       <c r="I12" t="n">
-        <v>79.30969083429952</v>
+        <v>79.30969083429926</v>
       </c>
       <c r="J12" t="n">
-        <v>79.30969083429952</v>
+        <v>199.2495899290024</v>
       </c>
       <c r="K12" t="n">
-        <v>79.30969083429952</v>
+        <v>482.4008059528307</v>
       </c>
       <c r="L12" t="n">
-        <v>506.3639849638859</v>
+        <v>909.4551000824158</v>
       </c>
       <c r="M12" t="n">
-        <v>1024.073071535632</v>
+        <v>1427.16418665416</v>
       </c>
       <c r="N12" t="n">
-        <v>1524.684453702721</v>
+        <v>1972.98413717174</v>
       </c>
       <c r="O12" t="n">
-        <v>2001.783278644794</v>
+        <v>2001.783278644797</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.364081192932</v>
+        <v>2365.364081192934</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.489022712023</v>
+        <v>2558.489022712024</v>
       </c>
       <c r="R12" t="n">
-        <v>2558.489022712023</v>
+        <v>2558.489022712024</v>
       </c>
       <c r="S12" t="n">
         <v>2434.319252740913</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>778.0595265918771</v>
+        <v>415.7109329326209</v>
       </c>
       <c r="C13" t="n">
-        <v>778.0595265918771</v>
+        <v>246.774750004714</v>
       </c>
       <c r="D13" t="n">
-        <v>627.9428871795413</v>
+        <v>246.774750004714</v>
       </c>
       <c r="E13" t="n">
-        <v>627.9428871795413</v>
+        <v>246.774750004714</v>
       </c>
       <c r="F13" t="n">
-        <v>481.052939681631</v>
+        <v>246.774750004714</v>
       </c>
       <c r="G13" t="n">
-        <v>313.5878805112162</v>
+        <v>79.30969083429926</v>
       </c>
       <c r="H13" t="n">
-        <v>169.4847514641577</v>
+        <v>79.30969083429926</v>
       </c>
       <c r="I13" t="n">
-        <v>79.30969083429952</v>
+        <v>79.30969083429926</v>
       </c>
       <c r="J13" t="n">
-        <v>140.9086531057054</v>
+        <v>140.9086531057046</v>
       </c>
       <c r="K13" t="n">
-        <v>371.971507284713</v>
+        <v>371.9715072847118</v>
       </c>
       <c r="L13" t="n">
-        <v>723.1788430804369</v>
+        <v>723.1788430804346</v>
       </c>
       <c r="M13" t="n">
-        <v>1103.866858869435</v>
+        <v>1103.866858869431</v>
       </c>
       <c r="N13" t="n">
-        <v>1480.937580944376</v>
+        <v>1480.937580944372</v>
       </c>
       <c r="O13" t="n">
-        <v>1813.207127930993</v>
+        <v>1813.207127930988</v>
       </c>
       <c r="P13" t="n">
-        <v>2074.000444487161</v>
+        <v>2074.000444487156</v>
       </c>
       <c r="Q13" t="n">
-        <v>2171.125138738325</v>
+        <v>2171.125138738319</v>
       </c>
       <c r="R13" t="n">
-        <v>2091.986020511931</v>
+        <v>2171.125138738319</v>
       </c>
       <c r="S13" t="n">
-        <v>2091.986020511931</v>
+        <v>1983.583067119497</v>
       </c>
       <c r="T13" t="n">
-        <v>2091.986020511931</v>
+        <v>1879.333083242256</v>
       </c>
       <c r="U13" t="n">
-        <v>1802.896123316931</v>
+        <v>1590.243186047256</v>
       </c>
       <c r="V13" t="n">
-        <v>1548.211635111044</v>
+        <v>1335.558697841369</v>
       </c>
       <c r="W13" t="n">
-        <v>1258.794465074083</v>
+        <v>1046.141527804408</v>
       </c>
       <c r="X13" t="n">
-        <v>1030.804914176066</v>
+        <v>818.1519769063907</v>
       </c>
       <c r="Y13" t="n">
-        <v>810.0123350325359</v>
+        <v>597.3593977628606</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555045</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614633</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007882</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608088</v>
+        <v>92.81162322608066</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251938</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
         <v>2182.462224957689</v>
@@ -5291,37 +5291,37 @@
         <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750193</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469743</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126172</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856058</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594978</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619167</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>93.85065580060311</v>
+        <v>93.85065580060318</v>
       </c>
       <c r="J15" t="n">
-        <v>93.85065580060311</v>
+        <v>241.4986375524493</v>
       </c>
       <c r="K15" t="n">
-        <v>93.85065580060311</v>
+        <v>241.4986375524493</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072593</v>
+        <v>732.2309703962009</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593869</v>
+        <v>1153.241917385461</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>1775.337880784798</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="P15" t="n">
         <v>2322.214355784993</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.5971173491902</v>
+        <v>781.597117349191</v>
       </c>
       <c r="C16" t="n">
-        <v>612.6609344212833</v>
+        <v>781.597117349191</v>
       </c>
       <c r="D16" t="n">
-        <v>462.5442950089475</v>
+        <v>631.4804779368553</v>
       </c>
       <c r="E16" t="n">
-        <v>462.5442950089475</v>
+        <v>483.5673843544623</v>
       </c>
       <c r="F16" t="n">
-        <v>317.3152257880633</v>
+        <v>336.677436856552</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>169.4632420311309</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>169.4632420311309</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156346</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861983</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.1842911693327</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
@@ -5449,37 +5449,37 @@
         <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020529</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856734</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410169</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410169</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2245.205584149099</v>
       </c>
       <c r="T16" t="n">
-        <v>2245.205584149098</v>
+        <v>2245.205584149099</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.129370463825</v>
+        <v>1956.129370463826</v>
       </c>
       <c r="V16" t="n">
-        <v>1701.444882257938</v>
+        <v>1701.444882257939</v>
       </c>
       <c r="W16" t="n">
-        <v>1412.027712220977</v>
+        <v>1412.027712220978</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.03816132296</v>
+        <v>1184.038161322961</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.2455821794299</v>
+        <v>963.2455821794307</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2266.424947555045</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C17" t="n">
-        <v>1897.462430614633</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>1539.196732007883</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2220959708303</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872368</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608088</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I17" t="n">
         <v>92.81162322608088</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874797</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750193</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U17" t="n">
-        <v>4100.461420469744</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V17" t="n">
-        <v>3769.398533126173</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W17" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.629877856061</v>
       </c>
       <c r="X17" t="n">
-        <v>3043.164119594979</v>
+        <v>3043.164119594981</v>
       </c>
       <c r="Y17" t="n">
-        <v>2653.024787619167</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5580,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G18" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I18" t="n">
-        <v>93.85065580060312</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J18" t="n">
-        <v>93.85065580060312</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K18" t="n">
-        <v>93.85065580060312</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L18" t="n">
-        <v>584.5829886443545</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.601342896482</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>1798.697306295819</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="O18" t="n">
-        <v>2322.214355784993</v>
+        <v>2200.595509637359</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q18" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R18" t="n">
         <v>2552.77562977024</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>865.6377590212821</v>
+        <v>722.0485409200911</v>
       </c>
       <c r="C19" t="n">
-        <v>696.7015760933748</v>
+        <v>553.1123579921842</v>
       </c>
       <c r="D19" t="n">
-        <v>696.7015760933748</v>
+        <v>402.9957185798485</v>
       </c>
       <c r="E19" t="n">
-        <v>548.7884825109817</v>
+        <v>255.0826249974552</v>
       </c>
       <c r="F19" t="n">
-        <v>401.8985350130713</v>
+        <v>108.1926774995448</v>
       </c>
       <c r="G19" t="n">
-        <v>234.6843401876502</v>
+        <v>108.1926774995448</v>
       </c>
       <c r="H19" t="n">
-        <v>92.81162322608053</v>
+        <v>108.1926774995448</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J19" t="n">
         <v>171.7937461156345</v>
@@ -5695,28 +5695,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S19" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T19" t="n">
-        <v>2208.69699212455</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U19" t="n">
-        <v>1919.620778439277</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V19" t="n">
-        <v>1785.48552393003</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W19" t="n">
-        <v>1496.068353893069</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.078802995052</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="Y19" t="n">
-        <v>1047.286223851522</v>
+        <v>903.6970057503308</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2266.424947555045</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C20" t="n">
-        <v>1897.462430614633</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D20" t="n">
-        <v>1539.196732007883</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E20" t="n">
-        <v>1153.408479409638</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F20" t="n">
-        <v>742.4225746200309</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>328.4394675364369</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J20" t="n">
         <v>372.3074987251936</v>
@@ -5759,10 +5759,10 @@
         <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O20" t="n">
         <v>3602.609239333933</v>
@@ -5774,28 +5774,28 @@
         <v>4514.497374127288</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469744</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.398533126173</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W20" t="n">
         <v>3416.629877856059</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.164119594979</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y20" t="n">
-        <v>2653.024787619167</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G21" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I21" t="n">
-        <v>93.85065580060312</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J21" t="n">
-        <v>93.85065580060312</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>93.85065580060312</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L21" t="n">
-        <v>106.3138404733484</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M21" t="n">
-        <v>698.3321947254761</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="N21" t="n">
-        <v>1320.428158124812</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="O21" t="n">
-        <v>1867.304633125007</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P21" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
         <v>2552.77562977024</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>722.0485409200917</v>
+        <v>494.0589900220739</v>
       </c>
       <c r="C22" t="n">
-        <v>699.9282680078002</v>
+        <v>325.122807094167</v>
       </c>
       <c r="D22" t="n">
-        <v>549.8116285954644</v>
+        <v>325.122807094167</v>
       </c>
       <c r="E22" t="n">
-        <v>401.8985350130713</v>
+        <v>325.122807094167</v>
       </c>
       <c r="F22" t="n">
-        <v>401.8985350130713</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="G22" t="n">
-        <v>234.6843401876502</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608053</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K22" t="n">
         <v>431.4224730861982</v>
@@ -5932,13 +5932,13 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.51642936867</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S22" t="n">
         <v>2177.3462391076</v>
       </c>
       <c r="T22" t="n">
-        <v>1957.667456821982</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U22" t="n">
         <v>1668.591243136709</v>
@@ -5947,13 +5947,13 @@
         <v>1413.906754930822</v>
       </c>
       <c r="W22" t="n">
-        <v>1124.489584893862</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.489584893862</v>
+        <v>896.5000339958438</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.6970057503314</v>
+        <v>675.7074548523136</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D23" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963571</v>
+        <v>794.2588208963557</v>
       </c>
       <c r="G23" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J23" t="n">
-        <v>424.1437450015205</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K23" t="n">
-        <v>893.7741287892025</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L23" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.41740758035</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I24" t="n">
-        <v>94.88738072612963</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J24" t="n">
-        <v>242.5353624779756</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="K24" t="n">
-        <v>573.0441050413344</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L24" t="n">
-        <v>1063.776437885086</v>
+        <v>915.0894235587172</v>
       </c>
       <c r="M24" t="n">
-        <v>1281.571598885107</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N24" t="n">
-        <v>1903.667562284443</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="O24" t="n">
-        <v>1903.667562284443</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.812354695766</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.7042115721532</v>
+        <v>557.5875721598175</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7680286442463</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6513892319106</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E25" t="n">
         <v>240.7382956495174</v>
       </c>
       <c r="F25" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="G25" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J25" t="n">
         <v>172.830471041161</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117248</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948589</v>
+        <v>820.221016094859</v>
       </c>
       <c r="M25" t="n">
         <v>1239.450608139318</v>
@@ -6163,34 +6163,34 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q25" t="n">
         <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062236</v>
       </c>
       <c r="V25" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856349</v>
       </c>
       <c r="W25" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819388</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.145255545923</v>
+        <v>960.0286161335872</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3526764023929</v>
+        <v>739.2360369900572</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D26" t="n">
         <v>1591.032978284208</v>
@@ -6212,10 +6212,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H26" t="n">
         <v>93.84834815160703</v>
@@ -6230,22 +6230,22 @@
         <v>842.974607438402</v>
       </c>
       <c r="L26" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
@@ -6263,13 +6263,13 @@
         <v>3821.234779402497</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>94.88738072612962</v>
       </c>
       <c r="J27" t="n">
-        <v>94.88738072612962</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K27" t="n">
-        <v>238.7141959544597</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="L27" t="n">
-        <v>729.446528798211</v>
+        <v>733.2676953217269</v>
       </c>
       <c r="M27" t="n">
-        <v>1321.464883050339</v>
+        <v>1325.286049573855</v>
       </c>
       <c r="N27" t="n">
-        <v>1321.464883050339</v>
+        <v>1947.382012973191</v>
       </c>
       <c r="O27" t="n">
-        <v>1868.341358050533</v>
+        <v>2494.258487973385</v>
       </c>
       <c r="P27" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q27" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>724.8017669852385</v>
+        <v>749.7802031534873</v>
       </c>
       <c r="C28" t="n">
-        <v>555.8655840573317</v>
+        <v>749.7802031534873</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8655840573317</v>
+        <v>749.7802031534873</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9524904749385</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0625429770282</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G28" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I28" t="n">
         <v>93.84834815160703</v>
@@ -6385,10 +6385,10 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948588</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M28" t="n">
         <v>1239.450608139318</v>
@@ -6400,34 +6400,34 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2429.412499335694</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S28" t="n">
-        <v>2408.089016070765</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T28" t="n">
-        <v>2188.410233785146</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>1899.334020099873</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V28" t="n">
-        <v>1644.649531893986</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="W28" t="n">
-        <v>1355.232361857026</v>
+        <v>1380.210798025274</v>
       </c>
       <c r="X28" t="n">
-        <v>1127.242810959008</v>
+        <v>1152.221247127257</v>
       </c>
       <c r="Y28" t="n">
-        <v>906.4502318154782</v>
+        <v>931.428667983727</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C29" t="n">
         <v>1949.298676890958</v>
@@ -6449,10 +6449,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
         <v>93.84834815160703</v>
@@ -6479,10 +6479,10 @@
         <v>3603.64596425946</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
@@ -6540,28 +6540,28 @@
         <v>94.88738072612962</v>
       </c>
       <c r="J30" t="n">
-        <v>107.3505653988748</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K30" t="n">
-        <v>107.3505653988748</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="L30" t="n">
-        <v>107.3505653988748</v>
+        <v>733.2676953217269</v>
       </c>
       <c r="M30" t="n">
-        <v>699.3689196510026</v>
+        <v>1325.286049573855</v>
       </c>
       <c r="N30" t="n">
-        <v>1321.464883050339</v>
+        <v>1947.382012973191</v>
       </c>
       <c r="O30" t="n">
-        <v>1868.341358050533</v>
+        <v>2494.258487973385</v>
       </c>
       <c r="P30" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q30" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>957.5492919979874</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C31" t="n">
-        <v>788.6131090700806</v>
+        <v>930.48582603165</v>
       </c>
       <c r="D31" t="n">
-        <v>638.4964696577448</v>
+        <v>780.3691866193143</v>
       </c>
       <c r="E31" t="n">
-        <v>490.5833760753517</v>
+        <v>632.4560930369212</v>
       </c>
       <c r="F31" t="n">
-        <v>343.6934285774413</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="G31" t="n">
-        <v>176.4792337520202</v>
+        <v>318.3519507135897</v>
       </c>
       <c r="H31" t="n">
         <v>176.4792337520202</v>
@@ -6619,13 +6619,13 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117248</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948589</v>
+        <v>820.221016094859</v>
       </c>
       <c r="M31" t="n">
         <v>1239.450608139318</v>
@@ -6634,7 +6634,7 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946054</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P31" t="n">
         <v>2311.699365782259</v>
@@ -6643,28 +6643,28 @@
         <v>2429.412499335694</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S31" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="T31" t="n">
-        <v>2141.874372008578</v>
+        <v>2141.874372008577</v>
       </c>
       <c r="U31" t="n">
-        <v>1852.798158323305</v>
+        <v>2141.874372008577</v>
       </c>
       <c r="V31" t="n">
-        <v>1598.113670117418</v>
+        <v>1887.18988380269</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.979886869774</v>
+        <v>1597.77271376573</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.990335971757</v>
+        <v>1369.783162867712</v>
       </c>
       <c r="Y31" t="n">
-        <v>1139.197756828227</v>
+        <v>1148.990583724182</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2295.453245469787</v>
+        <v>2295.453245469788</v>
       </c>
       <c r="C32" t="n">
-        <v>1930.119265768718</v>
+        <v>1930.119265768719</v>
       </c>
       <c r="D32" t="n">
         <v>1575.482104401311</v>
       </c>
       <c r="E32" t="n">
-        <v>1193.322389042409</v>
+        <v>1193.32238904241</v>
       </c>
       <c r="F32" t="n">
         <v>785.9650214921444</v>
@@ -6692,37 +6692,37 @@
         <v>375.6104516478936</v>
       </c>
       <c r="H32" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I32" t="n">
-        <v>92.81162322608066</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J32" t="n">
-        <v>372.3074987251937</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K32" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L32" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M32" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N32" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O32" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P32" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q32" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R32" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S32" t="n">
         <v>4558.742435310218</v>
@@ -6731,19 +6731,19 @@
         <v>4361.16182422888</v>
       </c>
       <c r="U32" t="n">
-        <v>4111.347032187771</v>
+        <v>4111.347032187772</v>
       </c>
       <c r="V32" t="n">
         <v>3783.912682083544</v>
       </c>
       <c r="W32" t="n">
-        <v>3434.772564052772</v>
+        <v>3434.772564052773</v>
       </c>
       <c r="X32" t="n">
-        <v>3064.935343031035</v>
+        <v>3064.935343031036</v>
       </c>
       <c r="Y32" t="n">
-        <v>2678.424548294566</v>
+        <v>2678.424548294567</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H33" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I33" t="n">
-        <v>93.85065580060312</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J33" t="n">
-        <v>93.85065580060312</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K33" t="n">
-        <v>424.3593983639619</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L33" t="n">
-        <v>915.0917312077133</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M33" t="n">
-        <v>1507.110085459841</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N33" t="n">
-        <v>1507.110085459841</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="O33" t="n">
-        <v>2053.986560460035</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P33" t="n">
-        <v>2473.570078886111</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q33" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R33" t="n">
         <v>2552.77562977024</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.7081129841249</v>
+        <v>836.5613096687398</v>
       </c>
       <c r="C34" t="n">
-        <v>569.4004672955608</v>
+        <v>684.3909729659463</v>
       </c>
       <c r="D34" t="n">
-        <v>422.9123651225679</v>
+        <v>537.9028707929534</v>
       </c>
       <c r="E34" t="n">
-        <v>278.6278087795176</v>
+        <v>537.9028707929534</v>
       </c>
       <c r="F34" t="n">
-        <v>256.3972808121589</v>
+        <v>394.6414605343858</v>
       </c>
       <c r="G34" t="n">
-        <v>92.81162322608053</v>
+        <v>231.0558029483074</v>
       </c>
       <c r="H34" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I34" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J34" t="n">
         <v>175.3500754639143</v>
       </c>
       <c r="K34" t="n">
-        <v>438.5351317827577</v>
+        <v>438.5351317827578</v>
       </c>
       <c r="L34" t="n">
         <v>829.8532792141718</v>
       </c>
       <c r="M34" t="n">
-        <v>1252.639200606911</v>
+        <v>1252.63920060691</v>
       </c>
       <c r="N34" t="n">
-        <v>1670.891395746898</v>
+        <v>1670.891395746897</v>
       </c>
       <c r="O34" t="n">
         <v>2041.470182110207</v>
@@ -6877,31 +6877,31 @@
         <v>2335.556946294691</v>
       </c>
       <c r="Q34" t="n">
-        <v>2456.826409196407</v>
+        <v>2456.826409196406</v>
       </c>
       <c r="R34" t="n">
-        <v>2392.595601394251</v>
+        <v>2456.826409196406</v>
       </c>
       <c r="S34" t="n">
-        <v>2392.595601394251</v>
+        <v>2277.284756174679</v>
       </c>
       <c r="T34" t="n">
-        <v>2176.545356347976</v>
+        <v>2061.234511128403</v>
       </c>
       <c r="U34" t="n">
-        <v>1891.097679902045</v>
+        <v>1775.786834682473</v>
       </c>
       <c r="V34" t="n">
-        <v>1640.041728935501</v>
+        <v>1524.730883715929</v>
       </c>
       <c r="W34" t="n">
-        <v>1354.253096137884</v>
+        <v>1238.942250918311</v>
       </c>
       <c r="X34" t="n">
-        <v>1129.892082479209</v>
+        <v>1014.581237259637</v>
       </c>
       <c r="Y34" t="n">
-        <v>912.7280405750219</v>
+        <v>1014.581237259637</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2295.453245469787</v>
+        <v>2295.453245469788</v>
       </c>
       <c r="C35" t="n">
-        <v>1930.119265768718</v>
+        <v>1930.119265768719</v>
       </c>
       <c r="D35" t="n">
         <v>1575.482104401311</v>
@@ -6923,64 +6923,64 @@
         <v>1193.322389042409</v>
       </c>
       <c r="F35" t="n">
-        <v>785.9650214921444</v>
+        <v>785.9650214921446</v>
       </c>
       <c r="G35" t="n">
-        <v>375.6104516478936</v>
+        <v>375.6104516478937</v>
       </c>
       <c r="H35" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I35" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J35" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K35" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L35" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M35" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N35" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O35" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P35" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q35" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R35" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S35" t="n">
-        <v>4558.742435310218</v>
+        <v>4558.74243531022</v>
       </c>
       <c r="T35" t="n">
-        <v>4361.16182422888</v>
+        <v>4361.161824228881</v>
       </c>
       <c r="U35" t="n">
-        <v>4111.347032187771</v>
+        <v>4111.347032187773</v>
       </c>
       <c r="V35" t="n">
-        <v>3783.912682083544</v>
+        <v>3783.912682083545</v>
       </c>
       <c r="W35" t="n">
-        <v>3434.772564052772</v>
+        <v>3434.772564052773</v>
       </c>
       <c r="X35" t="n">
-        <v>3064.935343031035</v>
+        <v>3064.935343031036</v>
       </c>
       <c r="Y35" t="n">
-        <v>2678.424548294566</v>
+        <v>2678.424548294567</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F36" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G36" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H36" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I36" t="n">
-        <v>93.85065580060312</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J36" t="n">
-        <v>93.85065580060312</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K36" t="n">
-        <v>424.3593983639619</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="L36" t="n">
-        <v>424.3593983639619</v>
+        <v>583.5439560698319</v>
       </c>
       <c r="M36" t="n">
-        <v>1016.37775261609</v>
+        <v>1175.56231032196</v>
       </c>
       <c r="N36" t="n">
-        <v>1638.473716015426</v>
+        <v>1797.658273721296</v>
       </c>
       <c r="O36" t="n">
-        <v>1867.304633125007</v>
+        <v>2344.53474872149</v>
       </c>
       <c r="P36" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q36" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R36" t="n">
         <v>2552.77562977024</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>835.447512810829</v>
+        <v>993.9831749975616</v>
       </c>
       <c r="C37" t="n">
-        <v>670.1398671222648</v>
+        <v>828.6755293089974</v>
       </c>
       <c r="D37" t="n">
-        <v>523.6517649492719</v>
+        <v>682.1874271360043</v>
       </c>
       <c r="E37" t="n">
-        <v>379.3672086062215</v>
+        <v>537.9028707929539</v>
       </c>
       <c r="F37" t="n">
-        <v>236.1057983476542</v>
+        <v>394.6414605343861</v>
       </c>
       <c r="G37" t="n">
-        <v>231.0558029483074</v>
+        <v>231.0558029483075</v>
       </c>
       <c r="H37" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I37" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J37" t="n">
-        <v>175.3500754639143</v>
+        <v>175.3500754639142</v>
       </c>
       <c r="K37" t="n">
-        <v>438.5351317827578</v>
+        <v>438.5351317827576</v>
       </c>
       <c r="L37" t="n">
-        <v>829.8532792141719</v>
+        <v>829.8532792141716</v>
       </c>
       <c r="M37" t="n">
         <v>1252.639200606911</v>
       </c>
       <c r="N37" t="n">
-        <v>1670.891395746898</v>
+        <v>1670.891395746897</v>
       </c>
       <c r="O37" t="n">
         <v>2041.470182110207</v>
       </c>
       <c r="P37" t="n">
-        <v>2335.556946294692</v>
+        <v>2335.556946294691</v>
       </c>
       <c r="Q37" t="n">
-        <v>2456.826409196407</v>
+        <v>2456.826409196406</v>
       </c>
       <c r="R37" t="n">
-        <v>2456.826409196407</v>
+        <v>2392.59560139425</v>
       </c>
       <c r="S37" t="n">
-        <v>2277.28475617468</v>
+        <v>2392.59560139425</v>
       </c>
       <c r="T37" t="n">
-        <v>2277.28475617468</v>
+        <v>2176.545356347975</v>
       </c>
       <c r="U37" t="n">
-        <v>1991.83707972875</v>
+        <v>1891.097679902044</v>
       </c>
       <c r="V37" t="n">
-        <v>1740.781128762206</v>
+        <v>1891.097679902044</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.992495964588</v>
+        <v>1613.528158151321</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.631482305913</v>
+        <v>1389.167144492646</v>
       </c>
       <c r="Y37" t="n">
-        <v>1013.467440401726</v>
+        <v>1172.003102588459</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2295.453245469788</v>
+        <v>2295.453245469787</v>
       </c>
       <c r="C38" t="n">
-        <v>1930.119265768719</v>
+        <v>1930.119265768718</v>
       </c>
       <c r="D38" t="n">
-        <v>1575.482104401312</v>
+        <v>1575.482104401311</v>
       </c>
       <c r="E38" t="n">
-        <v>1193.32238904241</v>
+        <v>1193.322389042409</v>
       </c>
       <c r="F38" t="n">
-        <v>785.9650214921453</v>
+        <v>785.9650214921444</v>
       </c>
       <c r="G38" t="n">
-        <v>375.6104516478945</v>
+        <v>375.6104516478936</v>
       </c>
       <c r="H38" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I38" t="n">
-        <v>92.81162322608066</v>
+        <v>92.81162322608043</v>
       </c>
       <c r="J38" t="n">
-        <v>372.3074987251937</v>
+        <v>372.307498725193</v>
       </c>
       <c r="K38" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L38" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M38" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N38" t="n">
         <v>2919.747202874794</v>
       </c>
       <c r="O38" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P38" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R38" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S38" t="n">
-        <v>4558.742435310219</v>
+        <v>4558.742435310218</v>
       </c>
       <c r="T38" t="n">
-        <v>4361.161824228881</v>
+        <v>4361.16182422888</v>
       </c>
       <c r="U38" t="n">
-        <v>4111.347032187772</v>
+        <v>4111.347032187771</v>
       </c>
       <c r="V38" t="n">
         <v>3783.912682083544</v>
       </c>
       <c r="W38" t="n">
-        <v>3434.772564052773</v>
+        <v>3434.772564052772</v>
       </c>
       <c r="X38" t="n">
-        <v>3064.935343031036</v>
+        <v>3064.935343031035</v>
       </c>
       <c r="Y38" t="n">
-        <v>2678.424548294567</v>
+        <v>2678.424548294566</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H39" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I39" t="n">
-        <v>93.85065580060314</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="J39" t="n">
-        <v>241.4986375524491</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="K39" t="n">
-        <v>241.4986375524491</v>
+        <v>273.0036752628434</v>
       </c>
       <c r="L39" t="n">
-        <v>732.2309703962005</v>
+        <v>763.7360081065948</v>
       </c>
       <c r="M39" t="n">
-        <v>732.2309703962005</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="N39" t="n">
-        <v>1354.326933795537</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O39" t="n">
-        <v>1901.203408795731</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P39" t="n">
-        <v>2320.786927221807</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q39" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R39" t="n">
         <v>2552.77562977024</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>712.4775850167659</v>
+        <v>907.6778776700668</v>
       </c>
       <c r="C40" t="n">
-        <v>547.1699393282018</v>
+        <v>907.6778776700668</v>
       </c>
       <c r="D40" t="n">
-        <v>400.6818371552089</v>
+        <v>761.1897754970738</v>
       </c>
       <c r="E40" t="n">
-        <v>256.3972808121589</v>
+        <v>616.9052191540235</v>
       </c>
       <c r="F40" t="n">
-        <v>256.3972808121589</v>
+        <v>473.6438088954559</v>
       </c>
       <c r="G40" t="n">
-        <v>92.81162322608054</v>
+        <v>310.0581513093775</v>
       </c>
       <c r="H40" t="n">
-        <v>92.81162322608054</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="I40" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J40" t="n">
         <v>175.3500754639143</v>
       </c>
       <c r="K40" t="n">
-        <v>438.5351317827578</v>
+        <v>438.535131782758</v>
       </c>
       <c r="L40" t="n">
-        <v>829.8532792141719</v>
+        <v>829.8532792141721</v>
       </c>
       <c r="M40" t="n">
         <v>1252.639200606911</v>
@@ -7360,22 +7360,22 @@
         <v>2277.28475617468</v>
       </c>
       <c r="T40" t="n">
-        <v>2154.314828380617</v>
+        <v>2063.7264882363</v>
       </c>
       <c r="U40" t="n">
-        <v>1868.867151934687</v>
+        <v>1778.278811790369</v>
       </c>
       <c r="V40" t="n">
-        <v>1617.811200968143</v>
+        <v>1527.222860823826</v>
       </c>
       <c r="W40" t="n">
-        <v>1332.022568170525</v>
+        <v>1527.222860823826</v>
       </c>
       <c r="X40" t="n">
-        <v>1107.66155451185</v>
+        <v>1302.861847165151</v>
       </c>
       <c r="Y40" t="n">
-        <v>890.4975126076629</v>
+        <v>1085.697805260964</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2295.453245469788</v>
+        <v>2295.453245469787</v>
       </c>
       <c r="C41" t="n">
-        <v>1930.119265768719</v>
+        <v>1930.119265768718</v>
       </c>
       <c r="D41" t="n">
         <v>1575.482104401311</v>
@@ -7397,22 +7397,22 @@
         <v>1193.322389042409</v>
       </c>
       <c r="F41" t="n">
-        <v>785.9650214921444</v>
+        <v>785.9650214921445</v>
       </c>
       <c r="G41" t="n">
-        <v>375.6104516478936</v>
+        <v>375.6104516478937</v>
       </c>
       <c r="H41" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I41" t="n">
-        <v>92.81162322608088</v>
+        <v>92.81162322608043</v>
       </c>
       <c r="J41" t="n">
         <v>372.3074987251935</v>
       </c>
       <c r="K41" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L41" t="n">
         <v>1461.45766301865</v>
@@ -7430,31 +7430,31 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q41" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R41" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S41" t="n">
-        <v>4558.742435310218</v>
+        <v>4558.742435310219</v>
       </c>
       <c r="T41" t="n">
         <v>4361.161824228881</v>
       </c>
       <c r="U41" t="n">
-        <v>4111.347032187772</v>
+        <v>4111.347032187771</v>
       </c>
       <c r="V41" t="n">
         <v>3783.912682083544</v>
       </c>
       <c r="W41" t="n">
-        <v>3434.772564052773</v>
+        <v>3434.772564052772</v>
       </c>
       <c r="X41" t="n">
-        <v>3064.935343031036</v>
+        <v>3064.935343031035</v>
       </c>
       <c r="Y41" t="n">
-        <v>2678.424548294567</v>
+        <v>2678.424548294566</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H42" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I42" t="n">
-        <v>93.85065580060312</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="J42" t="n">
         <v>241.4986375524491</v>
       </c>
       <c r="K42" t="n">
-        <v>525.8973588994244</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L42" t="n">
-        <v>525.8973588994244</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M42" t="n">
-        <v>1117.915713151552</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.011676550888</v>
+        <v>2276.854030611023</v>
       </c>
       <c r="O42" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P42" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q42" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R42" t="n">
         <v>2552.77562977024</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1014.989165832556</v>
+        <v>555.1664599623973</v>
       </c>
       <c r="C43" t="n">
-        <v>849.6815201439923</v>
+        <v>389.8588142738328</v>
       </c>
       <c r="D43" t="n">
-        <v>703.1934179709993</v>
+        <v>389.8588142738328</v>
       </c>
       <c r="E43" t="n">
-        <v>558.908861627949</v>
+        <v>389.8588142738328</v>
       </c>
       <c r="F43" t="n">
-        <v>415.6474513693814</v>
+        <v>389.8588142738328</v>
       </c>
       <c r="G43" t="n">
-        <v>252.0617937833031</v>
+        <v>226.2731566877544</v>
       </c>
       <c r="H43" t="n">
-        <v>113.817614061076</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="I43" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J43" t="n">
         <v>175.3500754639143</v>
       </c>
       <c r="K43" t="n">
-        <v>438.535131782758</v>
+        <v>438.5351317827578</v>
       </c>
       <c r="L43" t="n">
-        <v>829.8532792141721</v>
+        <v>829.8532792141717</v>
       </c>
       <c r="M43" t="n">
-        <v>1252.639200606912</v>
+        <v>1252.639200606911</v>
       </c>
       <c r="N43" t="n">
         <v>1670.891395746898</v>
       </c>
       <c r="O43" t="n">
-        <v>2041.470182110208</v>
+        <v>2041.470182110207</v>
       </c>
       <c r="P43" t="n">
-        <v>2335.556946294692</v>
+        <v>2335.556946294691</v>
       </c>
       <c r="Q43" t="n">
         <v>2456.826409196407</v>
       </c>
       <c r="R43" t="n">
-        <v>2456.826409196407</v>
+        <v>2392.59560139425</v>
       </c>
       <c r="S43" t="n">
-        <v>2456.826409196407</v>
+        <v>2213.053948372524</v>
       </c>
       <c r="T43" t="n">
-        <v>2456.826409196407</v>
+        <v>1997.003703326248</v>
       </c>
       <c r="U43" t="n">
-        <v>2171.378732750477</v>
+        <v>1711.556026880318</v>
       </c>
       <c r="V43" t="n">
-        <v>1920.322781783933</v>
+        <v>1460.500075913774</v>
       </c>
       <c r="W43" t="n">
-        <v>1634.534148986315</v>
+        <v>1174.711443116156</v>
       </c>
       <c r="X43" t="n">
-        <v>1410.17313532764</v>
+        <v>950.3504294574817</v>
       </c>
       <c r="Y43" t="n">
-        <v>1193.009093423453</v>
+        <v>733.1863875532943</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2295.453245469788</v>
+        <v>2295.453245469787</v>
       </c>
       <c r="C44" t="n">
-        <v>1930.119265768719</v>
+        <v>1930.119265768718</v>
       </c>
       <c r="D44" t="n">
         <v>1575.482104401311</v>
       </c>
       <c r="E44" t="n">
-        <v>1193.32238904241</v>
+        <v>1193.322389042409</v>
       </c>
       <c r="F44" t="n">
-        <v>785.9650214921448</v>
+        <v>785.9650214921444</v>
       </c>
       <c r="G44" t="n">
         <v>375.6104516478936</v>
       </c>
       <c r="H44" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I44" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608043</v>
       </c>
       <c r="J44" t="n">
-        <v>372.3074987251936</v>
+        <v>372.307498725193</v>
       </c>
       <c r="K44" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L44" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M44" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N44" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O44" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P44" t="n">
         <v>4150.915188021281</v>
@@ -7670,16 +7670,16 @@
         <v>4514.497374127288</v>
       </c>
       <c r="R44" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S44" t="n">
-        <v>4558.742435310219</v>
+        <v>4558.742435310218</v>
       </c>
       <c r="T44" t="n">
-        <v>4361.161824228881</v>
+        <v>4361.16182422888</v>
       </c>
       <c r="U44" t="n">
-        <v>4111.347032187772</v>
+        <v>4111.347032187771</v>
       </c>
       <c r="V44" t="n">
         <v>3783.912682083544</v>
@@ -7688,10 +7688,10 @@
         <v>3434.772564052772</v>
       </c>
       <c r="X44" t="n">
-        <v>3064.935343031036</v>
+        <v>3064.935343031035</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.424548294567</v>
+        <v>2678.424548294566</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H45" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I45" t="n">
-        <v>93.85065580060314</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J45" t="n">
-        <v>241.4986375524491</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K45" t="n">
-        <v>242.926066115635</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L45" t="n">
-        <v>733.6583989593863</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M45" t="n">
-        <v>733.6583989593863</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N45" t="n">
-        <v>1355.754362358723</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O45" t="n">
-        <v>1902.630837358917</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q45" t="n">
         <v>2552.77562977024</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1014.989165832555</v>
+        <v>555.1664599623981</v>
       </c>
       <c r="C46" t="n">
-        <v>849.6815201439913</v>
+        <v>389.858814273834</v>
       </c>
       <c r="D46" t="n">
-        <v>703.1934179709981</v>
+        <v>335.3996291732292</v>
       </c>
       <c r="E46" t="n">
-        <v>558.9088616279478</v>
+        <v>335.3996291732292</v>
       </c>
       <c r="F46" t="n">
-        <v>415.6474513693802</v>
+        <v>335.3996291732292</v>
       </c>
       <c r="G46" t="n">
-        <v>252.0617937833017</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="H46" t="n">
-        <v>113.8176140610757</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="I46" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J46" t="n">
         <v>175.3500754639143</v>
       </c>
       <c r="K46" t="n">
-        <v>438.5351317827576</v>
+        <v>438.535131782758</v>
       </c>
       <c r="L46" t="n">
-        <v>829.8532792141717</v>
+        <v>829.8532792141721</v>
       </c>
       <c r="M46" t="n">
         <v>1252.639200606911</v>
@@ -7819,37 +7819,37 @@
         <v>1670.891395746898</v>
       </c>
       <c r="O46" t="n">
-        <v>2041.470182110207</v>
+        <v>2041.470182110208</v>
       </c>
       <c r="P46" t="n">
-        <v>2335.556946294691</v>
+        <v>2335.556946294692</v>
       </c>
       <c r="Q46" t="n">
         <v>2456.826409196407</v>
       </c>
       <c r="R46" t="n">
-        <v>2456.826409196407</v>
+        <v>2392.595601394252</v>
       </c>
       <c r="S46" t="n">
-        <v>2456.826409196407</v>
+        <v>2213.053948372524</v>
       </c>
       <c r="T46" t="n">
-        <v>2456.826409196407</v>
+        <v>1997.003703326249</v>
       </c>
       <c r="U46" t="n">
-        <v>2171.378732750476</v>
+        <v>1711.556026880319</v>
       </c>
       <c r="V46" t="n">
-        <v>1920.322781783932</v>
+        <v>1460.500075913775</v>
       </c>
       <c r="W46" t="n">
-        <v>1634.534148986314</v>
+        <v>1174.711443116157</v>
       </c>
       <c r="X46" t="n">
-        <v>1410.17313532764</v>
+        <v>950.3504294574824</v>
       </c>
       <c r="Y46" t="n">
-        <v>1193.009093423452</v>
+        <v>733.186387553295</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>209.057009577846</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L2" t="n">
-        <v>214.9341548935987</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M2" t="n">
         <v>212.5009646122118</v>
@@ -7991,10 +7991,10 @@
         <v>211.167778269899</v>
       </c>
       <c r="O2" t="n">
-        <v>206.3768508508745</v>
+        <v>213.252896592586</v>
       </c>
       <c r="P2" t="n">
-        <v>210.9873633211545</v>
+        <v>212.3726614394729</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8055,25 +8055,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>132.5535436227116</v>
+        <v>132.2757235927434</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>129.0745055979979</v>
       </c>
       <c r="M3" t="n">
-        <v>129.9234925718064</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>111.7499598249992</v>
+        <v>118.6260055667107</v>
       </c>
       <c r="O3" t="n">
         <v>124.673618687554</v>
       </c>
       <c r="P3" t="n">
-        <v>119.8178223170488</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
         <v>137.2421710355686</v>
@@ -8140,7 +8140,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>127.177120590255</v>
+        <v>132.371579436055</v>
       </c>
       <c r="M4" t="n">
         <v>135.9022952863677</v>
@@ -8149,7 +8149,7 @@
         <v>124.8974446055506</v>
       </c>
       <c r="O4" t="n">
-        <v>136.4061815433745</v>
+        <v>131.2117226975745</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>154.7627458276911</v>
+        <v>147.8867000859795</v>
       </c>
       <c r="K5" t="n">
-        <v>177.2688449670831</v>
+        <v>176.9910249371147</v>
       </c>
       <c r="L5" t="n">
-        <v>174.1128276738349</v>
+        <v>180.988873415546</v>
       </c>
       <c r="M5" t="n">
-        <v>161.7447379858203</v>
+        <v>161.7447379858199</v>
       </c>
       <c r="N5" t="n">
-        <v>166.2997501532199</v>
+        <v>166.5775701831877</v>
       </c>
       <c r="O5" t="n">
-        <v>164.2715817840295</v>
+        <v>164.2715817840292</v>
       </c>
       <c r="P5" t="n">
-        <v>175.0514903124305</v>
+        <v>175.0514903124302</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.9917647647922</v>
+        <v>186.991764764792</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>113.9642774067852</v>
+        <v>107.0882316650736</v>
       </c>
       <c r="K6" t="n">
-        <v>104.0865772792823</v>
+        <v>110.9626230209935</v>
       </c>
       <c r="L6" t="n">
-        <v>93.16680262218144</v>
+        <v>93.16680262218122</v>
       </c>
       <c r="M6" t="n">
-        <v>89.1688721727019</v>
+        <v>95.76709788444494</v>
       </c>
       <c r="N6" t="n">
-        <v>83.85076584698147</v>
+        <v>76.97472010526978</v>
       </c>
       <c r="O6" t="n">
-        <v>92.86106823853881</v>
+        <v>92.86106823853858</v>
       </c>
       <c r="P6" t="n">
-        <v>100.6557694902463</v>
+        <v>100.9335895202143</v>
       </c>
       <c r="Q6" t="n">
-        <v>120.1744535900299</v>
+        <v>120.1744535900298</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>115.7059091112842</v>
+        <v>108.8298633695726</v>
       </c>
       <c r="M7" t="n">
-        <v>118.0528625983328</v>
+        <v>118.0528625983326</v>
       </c>
       <c r="N7" t="n">
-        <v>100.8675998802958</v>
+        <v>107.7436456220071</v>
       </c>
       <c r="O7" t="n">
-        <v>120.5618717592522</v>
+        <v>120.5618717592521</v>
       </c>
       <c r="P7" t="n">
-        <v>123.408426030507</v>
+        <v>123.4084260305069</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8617,10 +8617,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>171.4142040457085</v>
+        <v>152.808936860374</v>
       </c>
       <c r="N10" t="n">
-        <v>145.2551346857774</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.56319401867222e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>51.31264782909136</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>51.31264782908875</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>8.036003198443639</v>
+        <v>8.036003198443638</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>218.5510463161183</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.6207316513238</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>382.6511446665565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.198699825685</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.6620977565879</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.27331002355963</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>78.34772704413038</v>
       </c>
       <c r="S13" t="n">
-        <v>185.6666509026341</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.5431506420849</v>
+        <v>115.3356666036163</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23501,10 +23501,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>50.2915261372913</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>50.29152613728911</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.64426949425615</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>5.919474127409472</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108352</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>50.2915261372913</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>50.29152613728827</v>
       </c>
     </row>
     <row r="18">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>66.57733301367938</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>119.3437413596737</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>50.29152613728928</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>50.29152613729153</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>145.3477509154592</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>137.6915425298886</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3016600672235</v>
+        <v>61.86693864009453</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>30.28309363116898</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>160.2282399261787</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>130.7590911649583</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.4905529214241</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>13.00593589591301</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>142.8417107796199</v>
       </c>
       <c r="F34" t="n">
-        <v>119.8205734682967</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>136.8617379250045</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>78.21232487745964</v>
+        <v>78.21232487745971</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>63.58849972413424</v>
       </c>
       <c r="S34" t="n">
-        <v>177.7462364915096</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>214.9924014851455</v>
       </c>
     </row>
     <row r="35">
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>156.9503055648642</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>78.21232487745965</v>
+        <v>78.21232487745976</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25357,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>63.58849972413418</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>177.7462364915097</v>
       </c>
       <c r="T37" t="n">
-        <v>213.8897425958124</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>248.5453914568787</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>8.136919936425397</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>163.6545692316785</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>141.8287961559819</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>136.8617379250045</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>78.21232487745965</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.58849972413418</v>
+        <v>63.58849972413417</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>92.14951407969048</v>
+        <v>2.467057336816112</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>282.9307464696416</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>142.8417107796199</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>82.94714467540717</v>
       </c>
       <c r="I43" t="n">
-        <v>57.41639395081409</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>63.58849972413417</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>177.7462364915096</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>213.8897425958124</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>91.10862790166428</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>142.8417107796198</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>136.8617379250045</v>
       </c>
       <c r="I46" t="n">
-        <v>57.41639395081448</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>63.58849972413418</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>177.7462364915096</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>213.8897425958124</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933830.3636965092</v>
+        <v>933830.3636965076</v>
       </c>
     </row>
     <row r="6">
@@ -26314,13 +26314,13 @@
         <v>410191.1060012746</v>
       </c>
       <c r="C2" t="n">
-        <v>410201.0520048437</v>
+        <v>410201.0520048436</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321419</v>
       </c>
       <c r="E2" t="n">
-        <v>370360.4368605395</v>
+        <v>370360.4368605388</v>
       </c>
       <c r="F2" t="n">
         <v>401339.8858190154</v>
@@ -26329,31 +26329,31 @@
         <v>401339.8858190154</v>
       </c>
       <c r="H2" t="n">
-        <v>401339.8858190154</v>
+        <v>401339.8858190152</v>
       </c>
       <c r="I2" t="n">
-        <v>403341.4885592796</v>
+        <v>403341.4885592795</v>
       </c>
       <c r="J2" t="n">
-        <v>403341.4885592795</v>
+        <v>403341.4885592794</v>
       </c>
       <c r="K2" t="n">
-        <v>403341.4885592796</v>
+        <v>403341.4885592794</v>
       </c>
       <c r="L2" t="n">
+        <v>404369.1944589942</v>
+      </c>
+      <c r="M2" t="n">
+        <v>404369.1944589945</v>
+      </c>
+      <c r="N2" t="n">
+        <v>404369.1944589946</v>
+      </c>
+      <c r="O2" t="n">
+        <v>404369.1944589945</v>
+      </c>
+      <c r="P2" t="n">
         <v>404369.1944589944</v>
-      </c>
-      <c r="M2" t="n">
-        <v>404369.1944589944</v>
-      </c>
-      <c r="N2" t="n">
-        <v>404369.1944589945</v>
-      </c>
-      <c r="O2" t="n">
-        <v>404369.1944589946</v>
-      </c>
-      <c r="P2" t="n">
-        <v>404369.1944589943</v>
       </c>
     </row>
     <row r="3">
@@ -26366,28 +26366,28 @@
         <v>36051.26318243808</v>
       </c>
       <c r="C3" t="n">
-        <v>56605.31713792935</v>
+        <v>56605.31713792976</v>
       </c>
       <c r="D3" t="n">
-        <v>442602.9506730516</v>
+        <v>442602.9506730512</v>
       </c>
       <c r="E3" t="n">
-        <v>779774.1559505928</v>
+        <v>779774.1559505897</v>
       </c>
       <c r="F3" t="n">
-        <v>157221.8459870855</v>
+        <v>157221.8459870892</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3446.086611511732</v>
+        <v>3446.08661151149</v>
       </c>
       <c r="J3" t="n">
-        <v>1799.076112044317</v>
+        <v>1799.076112044377</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>45314.75273067477</v>
       </c>
       <c r="M3" t="n">
-        <v>200321.5260091891</v>
+        <v>200321.5260091883</v>
       </c>
       <c r="N3" t="n">
-        <v>41337.3474365219</v>
+        <v>41337.34743652272</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.186961971048731e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>406442.870506277</v>
       </c>
       <c r="C4" t="n">
-        <v>392996.4784198204</v>
+        <v>392996.4784198203</v>
       </c>
       <c r="D4" t="n">
         <v>271884.2225707669</v>
       </c>
       <c r="E4" t="n">
-        <v>8633.302291450022</v>
+        <v>8633.30229145002</v>
       </c>
       <c r="F4" t="n">
-        <v>8720.723770518931</v>
+        <v>8720.723770518933</v>
       </c>
       <c r="G4" t="n">
         <v>8720.723770518931</v>
       </c>
       <c r="H4" t="n">
-        <v>8720.723770518951</v>
+        <v>8720.723770518973</v>
       </c>
       <c r="I4" t="n">
-        <v>10054.30870000832</v>
+        <v>10054.30870000825</v>
       </c>
       <c r="J4" t="n">
-        <v>10054.3087000083</v>
+        <v>10054.30870000826</v>
       </c>
       <c r="K4" t="n">
-        <v>10054.30870000826</v>
+        <v>10054.30870000827</v>
       </c>
       <c r="L4" t="n">
+        <v>12187.65154153081</v>
+      </c>
+      <c r="M4" t="n">
+        <v>12187.65154153075</v>
+      </c>
+      <c r="N4" t="n">
         <v>12187.65154153087</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>12187.65154153081</v>
+      </c>
+      <c r="P4" t="n">
         <v>12187.65154153087</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12187.65154153082</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12187.65154153087</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12187.65154153086</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>34809.12706477298</v>
       </c>
       <c r="C5" t="n">
-        <v>36164.27005106871</v>
+        <v>36164.27005106872</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="E5" t="n">
-        <v>86878.26524233203</v>
+        <v>86878.26524233178</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26488,7 +26488,7 @@
         <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
         <v>100930.0394572385</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67112.15475221344</v>
+        <v>-67113.80364686777</v>
       </c>
       <c r="C6" t="n">
-        <v>-75565.0136039748</v>
+        <v>-75566.61276861164</v>
       </c>
       <c r="D6" t="n">
-        <v>-360952.0887232905</v>
+        <v>-360952.0887232898</v>
       </c>
       <c r="E6" t="n">
-        <v>-504925.2866238354</v>
+        <v>-505126.0888641907</v>
       </c>
       <c r="F6" t="n">
-        <v>135255.1875475727</v>
+        <v>135209.2825520032</v>
       </c>
       <c r="G6" t="n">
-        <v>292477.033534658</v>
+        <v>292431.1285390928</v>
       </c>
       <c r="H6" t="n">
-        <v>292477.0335346581</v>
+        <v>292431.1285390921</v>
       </c>
       <c r="I6" t="n">
-        <v>288911.053790521</v>
+        <v>288875.1568086569</v>
       </c>
       <c r="J6" t="n">
-        <v>290558.0642899884</v>
+        <v>290522.167308124</v>
       </c>
       <c r="K6" t="n">
-        <v>292357.1404020328</v>
+        <v>292321.2434201683</v>
       </c>
       <c r="L6" t="n">
-        <v>246422.6646507478</v>
+        <v>246391.9061983819</v>
       </c>
       <c r="M6" t="n">
-        <v>91415.89137223347</v>
+        <v>91385.1329198687</v>
       </c>
       <c r="N6" t="n">
-        <v>250400.0699449008</v>
+        <v>250369.3114925343</v>
       </c>
       <c r="O6" t="n">
-        <v>291737.4173814228</v>
+        <v>291706.658929057</v>
       </c>
       <c r="P6" t="n">
-        <v>291737.4173814225</v>
+        <v>291706.6589290568</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>3.592251866949314</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.592251866949255</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.592251866949378</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.592251866949314</v>
+      </c>
+      <c r="P2" t="n">
         <v>3.592251866949379</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.592251866949368</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.592251866949368</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3.592251866949378</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.592251866949368</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>97.18378302626867</v>
+        <v>97.18378302626913</v>
       </c>
       <c r="D3" t="n">
         <v>548.4699409129047</v>
       </c>
       <c r="E3" t="n">
-        <v>1220.316523314881</v>
+        <v>1220.316523314878</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26793,19 +26793,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E4" t="n">
-        <v>991.3711354287439</v>
+        <v>991.3711354287407</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="I4" t="n">
         <v>1173.104351895088</v>
@@ -26817,19 +26817,19 @@
         <v>1173.104351895088</v>
       </c>
       <c r="L4" t="n">
+        <v>1160.145290326007</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1160.145290326007</v>
+      </c>
+      <c r="N4" t="n">
         <v>1160.145290326006</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>1160.145290326007</v>
+      </c>
+      <c r="P4" t="n">
         <v>1160.145290326006</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1160.145290326007</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1160.145290326006</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1160.145290326007</v>
       </c>
     </row>
   </sheetData>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.234568003383174e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-6.439293542825908e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.483702463810914e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26960,19 +26960,19 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>62.16252230714335</v>
+        <v>62.1625223071438</v>
       </c>
       <c r="D3" t="n">
-        <v>451.286157886636</v>
+        <v>451.2861578866356</v>
       </c>
       <c r="E3" t="n">
-        <v>671.8465824019762</v>
+        <v>671.8465824019735</v>
       </c>
       <c r="F3" t="n">
-        <v>137.7245254015047</v>
+        <v>137.7245254015081</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>180.6495414246086</v>
       </c>
       <c r="E4" t="n">
-        <v>803.8455482624238</v>
+        <v>803.8455482624206</v>
       </c>
       <c r="F4" t="n">
-        <v>168.7741548972626</v>
+        <v>168.7741548972663</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.95906156908154</v>
+        <v>12.95906156908063</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711323</v>
+        <v>6.87604574171155</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>167.6904798555273</v>
+        <v>167.6904798555275</v>
       </c>
       <c r="M4" t="n">
-        <v>803.8455482624238</v>
+        <v>803.8455482624208</v>
       </c>
       <c r="N4" t="n">
-        <v>168.7741548972629</v>
+        <v>168.7741548972658</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>180.6495414246086</v>
       </c>
       <c r="M4" t="n">
-        <v>803.8455482624238</v>
+        <v>803.8455482624206</v>
       </c>
       <c r="N4" t="n">
-        <v>168.7741548972626</v>
+        <v>168.7741548972663</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>198.9917010283464</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>342.3649229757016</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>363.6746795891696</v>
       </c>
       <c r="Y2" t="n">
-        <v>379.3618929143421</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27464,10 +27464,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>151.5886593661015</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>139.0127913040845</v>
       </c>
       <c r="G3" t="n">
         <v>137.2681884137393</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>88.60479815866813</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
@@ -27515,13 +27515,13 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>225.9245414077138</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X3" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>160.3707753569164</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>138.5450022812198</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27558,10 +27558,10 @@
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>82.01821069278695</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>8.875829556412572</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>222.9160118599466</v>
+        <v>216.8595907706472</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>220.7997077433243</v>
       </c>
       <c r="U4" t="n">
-        <v>279.4395389006103</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>279.6469525948796</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>125.3275267430639</v>
+        <v>125.3275267430637</v>
       </c>
       <c r="S5" t="n">
-        <v>200.1172536838892</v>
+        <v>200.1172536838891</v>
       </c>
       <c r="T5" t="n">
-        <v>214.5095645854451</v>
+        <v>221.3856103271565</v>
       </c>
       <c r="U5" t="n">
         <v>251.3143978218381</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>321.6958373808355</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>363.6746795891696</v>
+        <v>362.8550549367576</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.6571379081559</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>150.7690347136895</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>130.2584346051785</v>
+        <v>137.13448034689</v>
       </c>
       <c r="H6" t="n">
-        <v>110.216588668347</v>
+        <v>103.3405429266355</v>
       </c>
       <c r="I6" t="n">
-        <v>82.19953193862065</v>
+        <v>75.32348619690919</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>87.17921497792747</v>
+        <v>87.17921497792742</v>
       </c>
       <c r="S6" t="n">
         <v>167.8004039234958</v>
       </c>
       <c r="T6" t="n">
-        <v>199.3221636325467</v>
+        <v>193.2657425432473</v>
       </c>
       <c r="U6" t="n">
         <v>225.9276296588485</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>199.6262746880049</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,34 +27771,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>172.9559344402259</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>160.3707753569164</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>140.3775415572698</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>160.9396841719459</v>
+        <v>167.8157299136573</v>
       </c>
       <c r="H7" t="n">
         <v>160.6690456254774</v>
       </c>
       <c r="I7" t="n">
-        <v>150.1802461690469</v>
+        <v>150.1802461690468</v>
       </c>
       <c r="J7" t="n">
-        <v>80.96904436920899</v>
+        <v>80.96904436920893</v>
       </c>
       <c r="K7" t="n">
-        <v>1.90869269349411</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.48729201472781</v>
+        <v>67.33956361892233</v>
       </c>
       <c r="R7" t="n">
         <v>169.4135390681871</v>
       </c>
       <c r="S7" t="n">
-        <v>214.0864324254025</v>
+        <v>220.9624781671139</v>
       </c>
       <c r="T7" t="n">
         <v>227.1967963459479</v>
@@ -27831,13 +27831,13 @@
         <v>286.3094702958654</v>
       </c>
       <c r="V7" t="n">
-        <v>245.2615975821166</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>167.1574544543629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>171.695167901897</v>
+        <v>129.3682389399023</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368131</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>143.5377255076725</v>
       </c>
       <c r="T8" t="n">
         <v>213.4438810562068</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>161.7153815510929</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.7123514897335</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,10 +27941,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>80.25097288860741</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
         <v>100.8417573507397</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714237</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
@@ -27986,19 +27986,19 @@
         <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377092</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>67.51167384452526</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.1571086109843</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>74.16076630941924</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.0019352027142</v>
@@ -28056,16 +28056,16 @@
         <v>3.343082173845772</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>19.25466862917616</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>162.8765598171859</v>
       </c>
       <c r="U10" t="n">
-        <v>98.7394943271302</v>
+        <v>98.73949432713026</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577478</v>
       </c>
     </row>
     <row r="11">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C32" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D32" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E32" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F32" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G32" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H32" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T32" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U32" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V32" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W32" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X32" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="J34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="K34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="L34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="M34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="N34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="O34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="P34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="R34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="S34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.592251866949379</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="C35" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="D35" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="E35" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="F35" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="G35" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="H35" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="T35" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="U35" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="V35" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="W35" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="X35" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="Y35" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="C37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="D37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="E37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="F37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="G37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="H37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="I37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="J37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="K37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="L37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="M37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="N37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="O37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="P37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="R37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="S37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="T37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="U37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="V37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="W37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="X37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949255</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="C38" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="D38" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="E38" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="F38" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="G38" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="H38" t="n">
-        <v>3.592251866948516</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="T38" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="U38" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="V38" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="W38" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="X38" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="Y38" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="C40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="D40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="E40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="F40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="G40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="H40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="I40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="J40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="K40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="L40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="M40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="N40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="O40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="P40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="R40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="S40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="T40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="U40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="V40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="W40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="X40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949378</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C41" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D41" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E41" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F41" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G41" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H41" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T41" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U41" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V41" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W41" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X41" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y41" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="C43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="D43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="E43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="F43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="G43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="H43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="I43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="J43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="K43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="L43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="M43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="N43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="O43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="P43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="R43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="S43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="T43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="U43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="V43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="W43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="X43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.592251866949378</v>
+        <v>3.592251866949314</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="C44" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="D44" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="E44" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="F44" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="G44" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="H44" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="T44" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="U44" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="V44" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="W44" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="X44" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="C46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="D46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="E46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="F46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="G46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="H46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="I46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="J46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="K46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="L46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="M46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="N46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="O46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="P46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="R46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="S46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="T46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="U46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="V46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="W46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="X46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.592251866949368</v>
+        <v>3.592251866949379</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3906885749799743</v>
+        <v>0.3906885749799761</v>
       </c>
       <c r="H5" t="n">
-        <v>4.001139368513662</v>
+        <v>4.001139368513681</v>
       </c>
       <c r="I5" t="n">
-        <v>15.06202128691547</v>
+        <v>15.06202128691554</v>
       </c>
       <c r="J5" t="n">
-        <v>33.15920444070662</v>
+        <v>33.15920444070677</v>
       </c>
       <c r="K5" t="n">
-        <v>49.69705181960894</v>
+        <v>49.69705181960917</v>
       </c>
       <c r="L5" t="n">
-        <v>61.65358729615234</v>
+        <v>61.65358729615263</v>
       </c>
       <c r="M5" t="n">
-        <v>68.60149524145245</v>
+        <v>68.60149524145278</v>
       </c>
       <c r="N5" t="n">
-        <v>69.71153915511431</v>
+        <v>69.71153915511464</v>
       </c>
       <c r="O5" t="n">
-        <v>65.82662963765719</v>
+        <v>65.8266296376575</v>
       </c>
       <c r="P5" t="n">
-        <v>56.18150544283907</v>
+        <v>56.18150544283933</v>
       </c>
       <c r="Q5" t="n">
-        <v>42.18997085136873</v>
+        <v>42.18997085136892</v>
       </c>
       <c r="R5" t="n">
-        <v>24.54159119808583</v>
+        <v>24.54159119808595</v>
       </c>
       <c r="S5" t="n">
-        <v>8.902815902356172</v>
+        <v>8.902815902356213</v>
       </c>
       <c r="T5" t="n">
-        <v>1.710239236974838</v>
+        <v>1.710239236974846</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03125508599839794</v>
+        <v>0.03125508599839808</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2090368163206534</v>
+        <v>0.2090368163206544</v>
       </c>
       <c r="H6" t="n">
-        <v>2.018855568149468</v>
+        <v>2.018855568149478</v>
       </c>
       <c r="I6" t="n">
-        <v>7.197100912794427</v>
+        <v>7.19710091279446</v>
       </c>
       <c r="J6" t="n">
-        <v>19.74939500159296</v>
+        <v>19.74939500159305</v>
       </c>
       <c r="K6" t="n">
-        <v>33.75486169507673</v>
+        <v>33.75486169507689</v>
       </c>
       <c r="L6" t="n">
-        <v>45.38757715769275</v>
+        <v>45.38757715769296</v>
       </c>
       <c r="M6" t="n">
-        <v>52.96516174931642</v>
+        <v>52.96516174931666</v>
       </c>
       <c r="N6" t="n">
-        <v>54.36699197806327</v>
+        <v>54.36699197806352</v>
       </c>
       <c r="O6" t="n">
-        <v>49.73517620590563</v>
+        <v>49.73517620590586</v>
       </c>
       <c r="P6" t="n">
-        <v>39.91686363582723</v>
+        <v>39.91686363582741</v>
       </c>
       <c r="Q6" t="n">
-        <v>26.68336623770305</v>
+        <v>26.68336623770318</v>
       </c>
       <c r="R6" t="n">
-        <v>12.97861917471566</v>
+        <v>12.97861917471572</v>
       </c>
       <c r="S6" t="n">
-        <v>3.882767180341958</v>
+        <v>3.882767180341976</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8425650622749139</v>
+        <v>0.8425650622749179</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01375242212635878</v>
+        <v>0.01375242212635884</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1752494448014681</v>
+        <v>0.1752494448014689</v>
       </c>
       <c r="H7" t="n">
-        <v>1.558126881962145</v>
+        <v>1.558126881962152</v>
       </c>
       <c r="I7" t="n">
-        <v>5.270228758211424</v>
+        <v>5.270228758211448</v>
       </c>
       <c r="J7" t="n">
-        <v>12.39013574746379</v>
+        <v>12.39013574746385</v>
       </c>
       <c r="K7" t="n">
-        <v>20.36079913238874</v>
+        <v>20.36079913238884</v>
       </c>
       <c r="L7" t="n">
-        <v>26.05481291166554</v>
+        <v>26.05481291166566</v>
       </c>
       <c r="M7" t="n">
-        <v>27.47114706101558</v>
+        <v>27.47114706101571</v>
       </c>
       <c r="N7" t="n">
-        <v>26.8179445849374</v>
+        <v>26.81794458493753</v>
       </c>
       <c r="O7" t="n">
-        <v>24.77071243430206</v>
+        <v>24.77071243430218</v>
       </c>
       <c r="P7" t="n">
-        <v>21.1956237603521</v>
+        <v>21.19562376035219</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.67475123696657</v>
+        <v>14.67475123696664</v>
       </c>
       <c r="R7" t="n">
-        <v>7.879852308982372</v>
+        <v>7.879852308982408</v>
       </c>
       <c r="S7" t="n">
-        <v>3.054119869858311</v>
+        <v>3.054119869858325</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7487930823335452</v>
+        <v>0.7487930823335487</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009559060625534634</v>
+        <v>0.009559060625534677</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.905795068602533</v>
+        <v>4.905795068602521</v>
       </c>
       <c r="H11" t="n">
-        <v>50.2414737463257</v>
+        <v>50.24147374632559</v>
       </c>
       <c r="I11" t="n">
-        <v>189.1306643822993</v>
+        <v>189.1306643822989</v>
       </c>
       <c r="J11" t="n">
-        <v>416.3732242038046</v>
+        <v>416.3732242038037</v>
       </c>
       <c r="K11" t="n">
-        <v>624.0355294577499</v>
+        <v>624.0355294577485</v>
       </c>
       <c r="L11" t="n">
-        <v>774.1712552884948</v>
+        <v>774.1712552884931</v>
       </c>
       <c r="M11" t="n">
-        <v>861.4146883397551</v>
+        <v>861.4146883397532</v>
       </c>
       <c r="N11" t="n">
-        <v>875.3532785784221</v>
+        <v>875.3532785784201</v>
       </c>
       <c r="O11" t="n">
-        <v>826.5712788650056</v>
+        <v>826.5712788650037</v>
       </c>
       <c r="P11" t="n">
-        <v>705.4594631088805</v>
+        <v>705.4594631088789</v>
       </c>
       <c r="Q11" t="n">
-        <v>529.7706772145521</v>
+        <v>529.7706772145509</v>
       </c>
       <c r="R11" t="n">
-        <v>308.1636494781041</v>
+        <v>308.1636494781034</v>
       </c>
       <c r="S11" t="n">
-        <v>111.7908051257803</v>
+        <v>111.7908051257801</v>
       </c>
       <c r="T11" t="n">
-        <v>21.4751179128076</v>
+        <v>21.47511791280755</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3924636054882025</v>
+        <v>0.3924636054882016</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.624831767130121</v>
+        <v>2.624831767130115</v>
       </c>
       <c r="H12" t="n">
-        <v>25.35034890886196</v>
+        <v>25.35034890886191</v>
       </c>
       <c r="I12" t="n">
-        <v>90.37249724548883</v>
+        <v>90.37249724548863</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>247.9890398936396</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>423.8527682913573</v>
       </c>
       <c r="L12" t="n">
-        <v>569.9223536481433</v>
+        <v>569.922353648142</v>
       </c>
       <c r="M12" t="n">
-        <v>665.07250520661</v>
+        <v>665.0725052066085</v>
       </c>
       <c r="N12" t="n">
-        <v>637.0097748783727</v>
+        <v>682.6749954344242</v>
       </c>
       <c r="O12" t="n">
-        <v>624.5142494364372</v>
+        <v>171.686286336421</v>
       </c>
       <c r="P12" t="n">
-        <v>501.2277433215405</v>
+        <v>501.2277433215394</v>
       </c>
       <c r="Q12" t="n">
-        <v>335.0574725901537</v>
+        <v>335.057472590153</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.75509883243884</v>
+        <v>48.75509883243873</v>
       </c>
       <c r="T12" t="n">
-        <v>10.57991400873939</v>
+        <v>10.57991400873937</v>
       </c>
       <c r="U12" t="n">
-        <v>0.172686300469087</v>
+        <v>0.1726863004690866</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.200570779748146</v>
+        <v>2.200570779748141</v>
       </c>
       <c r="H13" t="n">
-        <v>19.56507475085171</v>
+        <v>19.56507475085166</v>
       </c>
       <c r="I13" t="n">
-        <v>66.1771649036988</v>
+        <v>66.17716490369865</v>
       </c>
       <c r="J13" t="n">
-        <v>155.5803541281939</v>
+        <v>155.5803541281935</v>
       </c>
       <c r="K13" t="n">
-        <v>255.6663142289209</v>
+        <v>255.6663142289203</v>
       </c>
       <c r="L13" t="n">
-        <v>327.1648593818289</v>
+        <v>327.1648593818282</v>
       </c>
       <c r="M13" t="n">
-        <v>344.9494723199752</v>
+        <v>344.9494723199744</v>
       </c>
       <c r="N13" t="n">
-        <v>336.7473448681869</v>
+        <v>336.7473448681862</v>
       </c>
       <c r="O13" t="n">
-        <v>311.0406771229471</v>
+        <v>311.0406771229464</v>
       </c>
       <c r="P13" t="n">
-        <v>266.1490332160847</v>
+        <v>266.1490332160841</v>
       </c>
       <c r="Q13" t="n">
-        <v>184.267795020547</v>
+        <v>184.2677950205466</v>
       </c>
       <c r="R13" t="n">
-        <v>98.94566433303932</v>
+        <v>98.9456643330391</v>
       </c>
       <c r="S13" t="n">
-        <v>38.34994713433812</v>
+        <v>38.34994713433804</v>
       </c>
       <c r="T13" t="n">
-        <v>9.402438786196619</v>
+        <v>9.402438786196599</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1200311334408081</v>
+        <v>0.1200311334408078</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377428</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122285</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874066</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830433</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364267</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293313</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229612</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086956</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687527</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148609</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987165</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901942</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540907</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088192</v>
       </c>
       <c r="I15" t="n">
         <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735819</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>186.8264897865976</v>
+        <v>634.2436048745727</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>567.3976167394533</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927641</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426209</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286954</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862163</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291844</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548568</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284929</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273334</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900887</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.088578864062</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265024</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416876</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465964</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282425</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561743</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.6781096785133</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704644</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32309,13 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
         <v>634.2436048745725</v>
@@ -32324,19 +32324,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>671.4013449385596</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>221.1386921756675</v>
       </c>
       <c r="Q18" t="n">
         <v>372.8719498286953</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S18" t="n">
         <v>54.25758340862161</v>
@@ -32546,22 +32546,22 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>151.1434552068896</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>661.2558090115484</v>
       </c>
       <c r="O21" t="n">
         <v>694.9967242426205</v>
@@ -32570,10 +32570,10 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.25758340862161</v>
@@ -32783,10 +32783,10 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>471.6886536848224</v>
@@ -32795,19 +32795,19 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
-        <v>362.129146043252</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>571.4938338238233</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,10 +33023,10 @@
         <v>100.5719078530531</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
-        <v>283.1210503161066</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>634.2436048745725</v>
@@ -33035,19 +33035,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982454</v>
+        <v>194.1298283460286</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.25758340862161</v>
@@ -33260,13 +33260,13 @@
         <v>100.5719078530531</v>
       </c>
       <c r="J30" t="n">
-        <v>139.426702093682</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M30" t="n">
         <v>740.1323715504302</v>
@@ -33278,13 +33278,13 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982454</v>
+        <v>194.1298283460286</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.25758340862161</v>
@@ -33494,10 +33494,10 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I33" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
         <v>471.6886536848224</v>
@@ -33509,19 +33509,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>382.7677754386387</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>557.7961431982454</v>
       </c>
       <c r="Q33" t="n">
-        <v>184.3043464599795</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R33" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.25758340862161</v>
@@ -33731,16 +33731,16 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
         <v>740.1323715504302</v>
@@ -33749,16 +33749,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>373.7385849591724</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>344.3187317059969</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.25758340862161</v>
@@ -33971,19 +33971,19 @@
         <v>100.5719078530531</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>318.8040848958138</v>
       </c>
       <c r="L39" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>694.9967242426205</v>
@@ -33992,10 +33992,10 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q39" t="n">
-        <v>338.6307622825094</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.25758340862161</v>
@@ -34211,10 +34211,10 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>425.1128746783744</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
         <v>740.1323715504302</v>
@@ -34223,16 +34223,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426205</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.25758340862161</v>
@@ -34390,7 +34390,7 @@
         <v>589.5604233148607</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987169</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S44" t="n">
         <v>124.4074789854257</v>
@@ -34442,31 +34442,31 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>139.2832860078801</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P45" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34699,10 +34699,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.385298118318473</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>6.876045741711437</v>
@@ -34711,10 +34711,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.385298118318474</v>
       </c>
       <c r="Q2" t="n">
         <v>5.212927593424823</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522132</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="L3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2279021592211622</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>6.876045741711437</v>
@@ -34860,7 +34860,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.681586895911397</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
         <v>6.876045741711437</v>
@@ -34869,7 +34869,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O4" t="n">
-        <v>6.876045741711437</v>
+        <v>1.681586895911398</v>
       </c>
       <c r="P4" t="n">
         <v>4.9166388158319</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="L5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="Q6" t="n">
         <v>6.876045741711437</v>
@@ -35097,13 +35097,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>6.598225711743296</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O7" t="n">
         <v>6.876045741711437</v>
@@ -35337,10 +35337,10 @@
         <v>12.1592157464608</v>
       </c>
       <c r="M10" t="n">
-        <v>187.5255871663201</v>
+        <v>168.9203199809856</v>
       </c>
       <c r="N10" t="n">
-        <v>168.9203199809857</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O10" t="n">
         <v>164.382023673283</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>235.3273196771183</v>
+        <v>235.3273196771174</v>
       </c>
       <c r="K11" t="n">
-        <v>403.9456784127694</v>
+        <v>403.9456784127679</v>
       </c>
       <c r="L11" t="n">
-        <v>538.4048403185075</v>
+        <v>538.4048403185059</v>
       </c>
       <c r="M11" t="n">
-        <v>631.0684551124824</v>
+        <v>631.0684551124805</v>
       </c>
       <c r="N11" t="n">
-        <v>645.9402149818311</v>
+        <v>645.9402149818293</v>
       </c>
       <c r="O11" t="n">
-        <v>596.4730674433189</v>
+        <v>596.4730674433169</v>
       </c>
       <c r="P11" t="n">
-        <v>474.226467353611</v>
+        <v>474.2264673536094</v>
       </c>
       <c r="Q11" t="n">
-        <v>307.4649873401025</v>
+        <v>307.4649873401014</v>
       </c>
       <c r="R11" t="n">
-        <v>92.57811166397198</v>
+        <v>92.5781116639713</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>121.1514132269729</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>286.0113293169983</v>
       </c>
       <c r="L12" t="n">
-        <v>431.3679738682691</v>
+        <v>431.3679738682678</v>
       </c>
       <c r="M12" t="n">
-        <v>522.9384712845917</v>
+        <v>522.9384712845902</v>
       </c>
       <c r="N12" t="n">
-        <v>505.6680627950394</v>
+        <v>551.3332833510909</v>
       </c>
       <c r="O12" t="n">
-        <v>481.9180049919928</v>
+        <v>29.09004189197657</v>
       </c>
       <c r="P12" t="n">
-        <v>367.2533359072102</v>
+        <v>367.2533359072091</v>
       </c>
       <c r="Q12" t="n">
-        <v>195.0756985041322</v>
+        <v>195.0756985041315</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>62.2211740115211</v>
+        <v>62.22117401152076</v>
       </c>
       <c r="K13" t="n">
-        <v>233.396822403038</v>
+        <v>233.3968224030374</v>
       </c>
       <c r="L13" t="n">
-        <v>354.754884642145</v>
+        <v>354.7548846421444</v>
       </c>
       <c r="M13" t="n">
-        <v>384.5333492818158</v>
+        <v>384.533349281815</v>
       </c>
       <c r="N13" t="n">
-        <v>380.8795172474155</v>
+        <v>380.8795172474148</v>
       </c>
       <c r="O13" t="n">
-        <v>335.6258050369868</v>
+        <v>335.6258050369861</v>
       </c>
       <c r="P13" t="n">
-        <v>263.4275924809782</v>
+        <v>263.4275924809776</v>
       </c>
       <c r="Q13" t="n">
-        <v>98.10575176885261</v>
+        <v>98.10575176885222</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607204</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380628</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664395</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020586</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263703</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870089</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134833</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404114</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845843</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053107</v>
+        <v>1.049527853053149</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069152</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>48.27211000672347</v>
+        <v>495.6892250946985</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>425.2635828174349</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094308</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981764</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426739</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066058</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642058</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243781</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.464234388343</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209162</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606361</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.465085693136</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
         <v>495.6892250946983</v>
@@ -35972,19 +35972,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>528.8051004941152</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>87.16428476133723</v>
       </c>
       <c r="Q18" t="n">
         <v>232.8901757426738</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020591</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
         <v>744.73230092637</v>
@@ -36142,7 +36142,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845857</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>12.5890754270154</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>529.9140969282151</v>
       </c>
       <c r="O21" t="n">
         <v>552.4004797981761</v>
@@ -36218,10 +36218,10 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>333.6317139898116</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K23" t="n">
         <v>474.3741250380626</v>
@@ -36373,7 +36373,7 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P23" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425718</v>
       </c>
       <c r="Q23" t="n">
         <v>367.2547334404112</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>333.8472147104634</v>
@@ -36443,19 +36443,19 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
-        <v>219.9951121212337</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>428.8975893793788</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>474.3741250380626</v>
       </c>
       <c r="L26" t="n">
-        <v>677.0902038955297</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M26" t="n">
         <v>728.2874363020583</v>
@@ -36616,7 +36616,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>1.049527853053121</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
-        <v>145.2796113417475</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>495.6892250946983</v>
@@ -36683,19 +36683,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839152</v>
+        <v>60.15542093169836</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36847,13 +36847,13 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P29" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q29" t="n">
         <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>1.049527853053121</v>
       </c>
       <c r="J30" t="n">
-        <v>12.58907542701531</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M30" t="n">
         <v>597.9983376284119</v>
@@ -36926,13 +36926,13 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839152</v>
+        <v>60.15542093169836</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
         <v>333.8472147104634</v>
@@ -37157,19 +37157,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>251.4260633553054</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>423.8217357839152</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.32257237395797</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R33" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>83.3721739776099</v>
+        <v>83.37217397760983</v>
       </c>
       <c r="K34" t="n">
-        <v>265.8434912311551</v>
+        <v>265.843491231155</v>
       </c>
       <c r="L34" t="n">
-        <v>395.2708559913274</v>
+        <v>395.2708559913273</v>
       </c>
       <c r="M34" t="n">
-        <v>427.0564862552922</v>
+        <v>427.0564862552921</v>
       </c>
       <c r="N34" t="n">
         <v>422.4769647878654</v>
@@ -37242,7 +37242,7 @@
         <v>374.3220064275853</v>
       </c>
       <c r="P34" t="n">
-        <v>297.0573375600853</v>
+        <v>297.0573375600852</v>
       </c>
       <c r="Q34" t="n">
         <v>122.4944069714292</v>
@@ -37318,7 +37318,7 @@
         <v>744.73230092637</v>
       </c>
       <c r="O35" t="n">
-        <v>689.759632787009</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P35" t="n">
         <v>553.844392613483</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
         <v>597.9983376284119</v>
@@ -37397,16 +37397,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>231.142340514728</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>210.3443242916667</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>83.37217397760989</v>
+        <v>83.37217397760978</v>
       </c>
       <c r="K37" t="n">
-        <v>265.8434912311551</v>
+        <v>265.843491231155</v>
       </c>
       <c r="L37" t="n">
-        <v>395.2708559913274</v>
+        <v>395.2708559913273</v>
       </c>
       <c r="M37" t="n">
-        <v>427.0564862552922</v>
+        <v>427.056486255292</v>
       </c>
       <c r="N37" t="n">
-        <v>422.4769647878654</v>
+        <v>422.4769647878653</v>
       </c>
       <c r="O37" t="n">
-        <v>374.3220064275853</v>
+        <v>374.3220064275852</v>
       </c>
       <c r="P37" t="n">
-        <v>297.0573375600853</v>
+        <v>297.0573375600852</v>
       </c>
       <c r="Q37" t="n">
-        <v>122.4944069714292</v>
+        <v>122.4944069714291</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>1.049527853053121</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>180.9626459214549</v>
       </c>
       <c r="L39" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>552.4004797981761</v>
@@ -37640,10 +37640,10 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q39" t="n">
-        <v>198.6489881964878</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R39" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>83.37217397760989</v>
+        <v>83.3721739776099</v>
       </c>
       <c r="K40" t="n">
         <v>265.8434912311551</v>
@@ -37859,10 +37859,10 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>287.2714357040154</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
         <v>597.9983376284119</v>
@@ -37871,16 +37871,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981761</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>83.3721739776099</v>
+        <v>83.37217397760983</v>
       </c>
       <c r="K43" t="n">
-        <v>265.8434912311551</v>
+        <v>265.843491231155</v>
       </c>
       <c r="L43" t="n">
-        <v>395.2708559913274</v>
+        <v>395.2708559913273</v>
       </c>
       <c r="M43" t="n">
-        <v>427.0564862552922</v>
+        <v>427.0564862552921</v>
       </c>
       <c r="N43" t="n">
         <v>422.4769647878654</v>
@@ -37953,7 +37953,7 @@
         <v>374.3220064275853</v>
       </c>
       <c r="P43" t="n">
-        <v>297.0573375600853</v>
+        <v>297.0573375600852</v>
       </c>
       <c r="Q43" t="n">
         <v>122.4944069714292</v>
@@ -38038,7 +38038,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845848</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>1.441847033521067</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>83.37217397760989</v>
+        <v>83.3721739776099</v>
       </c>
       <c r="K46" t="n">
         <v>265.8434912311551</v>
